--- a/frontend/data_remaja.xlsx
+++ b/frontend/data_remaja.xlsx
@@ -5,22 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remaja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remaja\absen-remaja\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08BA1A-A911-46CA-A0BD-F14F5330E10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829A5FF-2B79-4C5D-B1DB-5271488DA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="7320" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$118</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="617">
   <si>
     <t>nama</t>
   </si>
@@ -121,9 +137,6 @@
     <t>DONITA CRISTELA</t>
   </si>
   <si>
-    <t>DYLAN SUMARDIN</t>
-  </si>
-  <si>
     <t xml:space="preserve">EBEN HAEZER PUTRA POHAN SIMANJUNTAK </t>
   </si>
   <si>
@@ -133,9 +146,6 @@
     <t>ELLIOTT SUBROTO</t>
   </si>
   <si>
-    <t>ERIN KURNIA</t>
-  </si>
-  <si>
     <t>ERIKA ENJELINA</t>
   </si>
   <si>
@@ -319,9 +329,6 @@
     <t>SHINDY ESTERA</t>
   </si>
   <si>
-    <t>STACEY JANICE CATHLEENA LUKMAN</t>
-  </si>
-  <si>
     <t>STEPHANUS MIKHAEL</t>
   </si>
   <si>
@@ -415,24 +422,12 @@
     <t>GABRIELLE ANGELINA LIMAN</t>
   </si>
   <si>
-    <t>Aaron.subroto@gmail.com</t>
-  </si>
-  <si>
     <t>abremarevando@gmail.com</t>
   </si>
   <si>
-    <t>Adelinesuma007@gmail.com</t>
-  </si>
-  <si>
     <t>uciaiko@gmail.com</t>
   </si>
   <si>
-    <t>Aitershereen@gmail.com</t>
-  </si>
-  <si>
-    <t>Fukada.angel@gmail.com</t>
-  </si>
-  <si>
     <t>ann.abigail.halim@gmail.com</t>
   </si>
   <si>
@@ -448,9 +443,6 @@
     <t>gbreesa@gmail.com</t>
   </si>
   <si>
-    <t>Bryanisaac.utama@gmail.com</t>
-  </si>
-  <si>
     <t>bryant.warsono@gmail.com</t>
   </si>
   <si>
@@ -469,18 +461,12 @@
     <t>ellajanice0911@gmail.com</t>
   </si>
   <si>
-    <t>Danisegchen@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">davewinstonsetiawan@gmail.com </t>
   </si>
   <si>
     <t>disagracelyn@gmail.com</t>
   </si>
   <si>
-    <t>Donitacristela8@gmail.com</t>
-  </si>
-  <si>
     <t>adelinesuma007@gmail.com</t>
   </si>
   <si>
@@ -493,9 +479,6 @@
     <t>elliotsubroto@gmail.com</t>
   </si>
   <si>
-    <t>erin.kurnia.ek@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">erikaenjelina060@gmail.com </t>
   </si>
   <si>
@@ -508,9 +491,6 @@
     <t>febe.dwi10@yahoo.com</t>
   </si>
   <si>
-    <t>Felicialie153@gmail.com</t>
-  </si>
-  <si>
     <t>fidelinecallysta@gmail.com</t>
   </si>
   <si>
@@ -523,9 +503,6 @@
     <t>katelunasoen@gmail.com</t>
   </si>
   <si>
-    <t>Gizelleaimeehandoko@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">glorysamanthalie18@gmail.com </t>
   </si>
   <si>
@@ -541,27 +518,12 @@
     <t>griffgitha66@gmail.com</t>
   </si>
   <si>
-    <t>Eze.tanis@gmail.com</t>
-  </si>
-  <si>
-    <t>Hansyang2005@gmail.com</t>
-  </si>
-  <si>
-    <t>Aldrichhansel@gmail.com</t>
-  </si>
-  <si>
     <t>hanzelclement1@gmail.com</t>
   </si>
   <si>
-    <t>Aminsunter2020@gmail.com</t>
-  </si>
-  <si>
     <t>ivonne.glow08@gmail.com</t>
   </si>
   <si>
-    <t>Janiceyang2007@gmail.com</t>
-  </si>
-  <si>
     <t>jeschandra.jc@gmail.com</t>
   </si>
   <si>
@@ -571,21 +533,9 @@
     <t>eliz.melvi@gmail.com</t>
   </si>
   <si>
-    <t>a48867669@GMAIL.Com</t>
-  </si>
-  <si>
     <t>jocelyn.anthony@sekolahkristencalvin.org</t>
   </si>
   <si>
-    <t>Jonathanlim.200828@gmail.con</t>
-  </si>
-  <si>
-    <t>Ephine.dicta@gmail.com</t>
-  </si>
-  <si>
-    <t>Davidson.bisuk@gmail.com</t>
-  </si>
-  <si>
     <t>kayshanksone@gmail.com</t>
   </si>
   <si>
@@ -655,12 +605,6 @@
     <t>raymond.herlin@sekolahkristencalvin</t>
   </si>
   <si>
-    <t>Aldophang1@gmail.com</t>
-  </si>
-  <si>
-    <t>Samantha.lionardi@gmail.com</t>
-  </si>
-  <si>
     <t>reginasarah701@gmail.com</t>
   </si>
   <si>
@@ -673,15 +617,9 @@
     <t>shereennnn8888@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Sherina.gozali@sekolahkristencalvin.org </t>
-  </si>
-  <si>
     <t>shinshindy28@gmail.com</t>
   </si>
   <si>
-    <t>staceylukman888@gmail.com</t>
-  </si>
-  <si>
     <t>stevemikhael2018@gmail.com</t>
   </si>
   <si>
@@ -691,27 +629,15 @@
     <t>timothycalvinyang@gmail.com</t>
   </si>
   <si>
-    <t>Timothy.sitorus2811.gmail.com</t>
-  </si>
-  <si>
     <t>timothynoelriyanto@gmail.com</t>
   </si>
   <si>
-    <t>Valenia.chow@sekolahkristencalvin.org</t>
-  </si>
-  <si>
     <t>valerie.gtang@gmail.com</t>
   </si>
   <si>
-    <t>Vanessawidjaya580@gmail.com</t>
-  </si>
-  <si>
     <t>verrendangelo@gmail.com</t>
   </si>
   <si>
-    <t>Wilbertarianto26@gmail.com</t>
-  </si>
-  <si>
     <t>pasaribuwilson75@gmail.com</t>
   </si>
   <si>
@@ -850,9 +776,6 @@
     <t>membaca, menulis cerita, scroll tiktok, nonton drakor, nge-fangirling</t>
   </si>
   <si>
-    <t>Baking, Sewing</t>
-  </si>
-  <si>
     <t>Mendengarkan musik, main bulu tangkis</t>
   </si>
   <si>
@@ -1009,9 +932,6 @@
     <t>Baca buku, edit video atau edit gambar, main game, berenang</t>
   </si>
   <si>
-    <t>Dengar musik</t>
-  </si>
-  <si>
     <t>Nonton film, main game</t>
   </si>
   <si>
@@ -1033,9 +953,6 @@
     <t>baca buku, nonton film, denger musik, gambar</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Memain Video Game</t>
   </si>
   <si>
@@ -1162,9 +1079,6 @@
     <t>SMPK Calvin</t>
   </si>
   <si>
-    <t>Australian Christian College</t>
-  </si>
-  <si>
     <t>SMAK IPEKA Sunter</t>
   </si>
   <si>
@@ -1267,9 +1181,6 @@
     <t xml:space="preserve">SMA MUTIARA BANGSA </t>
   </si>
   <si>
-    <t>ACS Jakarta</t>
-  </si>
-  <si>
     <t>Global Multimedia Creative School</t>
   </si>
   <si>
@@ -1360,9 +1271,6 @@
     <t>Burlingame, California</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Pekanbaru</t>
   </si>
   <si>
@@ -1414,9 +1322,6 @@
     <t>Kota Singkawang, Kalimantan Barat</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Malang, Jawa Timur</t>
   </si>
   <si>
@@ -1454,96 +1359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jayapura </t>
-  </si>
-  <si>
-    <t>6/29/0005</t>
-  </si>
-  <si>
-    <t>Jakarta Timur</t>
-  </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
-  <si>
-    <t>Jakarta Selatan</t>
-  </si>
-  <si>
-    <t>Tanjung Priok</t>
-  </si>
-  <si>
-    <t>Pulo Gadung</t>
-  </si>
-  <si>
-    <t>Kebon Jeruk</t>
-  </si>
-  <si>
-    <t>Kalideres</t>
-  </si>
-  <si>
-    <t>lupa</t>
-  </si>
-  <si>
-    <t>Sawah Besar</t>
-  </si>
-  <si>
-    <t>Cengkareng</t>
-  </si>
-  <si>
-    <t>Grogol Petamburan</t>
-  </si>
-  <si>
-    <t>Penjaringan</t>
-  </si>
-  <si>
-    <t>Setiabudi</t>
-  </si>
-  <si>
-    <t>Cempaka Putih</t>
-  </si>
-  <si>
-    <t>Gambir</t>
-  </si>
-  <si>
-    <t>Senen</t>
-  </si>
-  <si>
-    <t>Cipondoh</t>
-  </si>
-  <si>
-    <t>Serpong Utara</t>
-  </si>
-  <si>
-    <t>Tanggerang</t>
-  </si>
-  <si>
-    <t>Rawalumbu</t>
-  </si>
-  <si>
-    <t>Serpong utara</t>
-  </si>
-  <si>
-    <t>Ciledug</t>
-  </si>
-  <si>
-    <t>Banten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cildug </t>
-  </si>
-  <si>
-    <t>Kembangan</t>
-  </si>
-  <si>
-    <t>Pademangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batu Ceper </t>
-  </si>
-  <si>
-    <t>gading serpong</t>
-  </si>
-  <si>
-    <t>Taman Sari</t>
   </si>
   <si>
     <t>Jalan Ende no 36</t>
@@ -1613,9 +1428,6 @@
     <t>Jalan melati nomor 7 RT 12 RW 01 kramat senen</t>
   </si>
   <si>
-    <t>Jl mangga 17 blok TT no 490 A</t>
-  </si>
-  <si>
     <t>Jln telaga murni 3 sunter jaya rt 30 rw 01 no 44 jakarta utara</t>
   </si>
   <si>
@@ -1623,9 +1435,6 @@
   </si>
   <si>
     <t>Jl ende no 34</t>
-  </si>
-  <si>
-    <t>7 Claremont St, Kellyville Ridge, Australia</t>
   </si>
   <si>
     <t>Jalan Gembira Terusan No.182, RT.11/RW.7, Sungai Bambu, Tanjung Priok, KOTA JAKARTA UTARA, TANJUNG PRIOK, DKI JAKARTA, ID, 14310</t>
@@ -1810,9 +1619,6 @@
     <t>Jl. Ruko Poris Indah no A9/27, Poris Indah</t>
   </si>
   <si>
-    <t>Citra Gran D325</t>
-  </si>
-  <si>
     <t>Jl. Rembiga No.67, RT.8/RW.10, Gn. Sahari Utara, Kecamatan Sawah Besar, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10720</t>
   </si>
   <si>
@@ -1907,6 +1713,183 @@
   </si>
   <si>
     <t>kelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>JAKARTA UTARA</t>
+  </si>
+  <si>
+    <t>JAKARTA TIMUR</t>
+  </si>
+  <si>
+    <t>JAKARTA BARAT</t>
+  </si>
+  <si>
+    <t>LAINNYA</t>
+  </si>
+  <si>
+    <t>JAKARTA PUSAT</t>
+  </si>
+  <si>
+    <t>JAKARTA SELATAN</t>
+  </si>
+  <si>
+    <t>TANJUNG PRIOK</t>
+  </si>
+  <si>
+    <t>PULO GADUNG</t>
+  </si>
+  <si>
+    <t>KEBON JERUK</t>
+  </si>
+  <si>
+    <t>KELAPA GADING</t>
+  </si>
+  <si>
+    <t>KALIDERES</t>
+  </si>
+  <si>
+    <t>LUPA</t>
+  </si>
+  <si>
+    <t>SAWAH BESAR</t>
+  </si>
+  <si>
+    <t>CENGKARENG</t>
+  </si>
+  <si>
+    <t>GROGOL PETAMBURAN</t>
+  </si>
+  <si>
+    <t>PENJARINGAN</t>
+  </si>
+  <si>
+    <t>SETIABUDI</t>
+  </si>
+  <si>
+    <t>KEMAYORAN</t>
+  </si>
+  <si>
+    <t>CEMPAKA PUTIH</t>
+  </si>
+  <si>
+    <t>GAMBIR</t>
+  </si>
+  <si>
+    <t>SENEN</t>
+  </si>
+  <si>
+    <t>CIPONDOH</t>
+  </si>
+  <si>
+    <t>SERPONG UTARA</t>
+  </si>
+  <si>
+    <t>TANGGERANG</t>
+  </si>
+  <si>
+    <t>RAWALUMBU</t>
+  </si>
+  <si>
+    <t>DEPOK</t>
+  </si>
+  <si>
+    <t>CILEDUG</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CILDUG </t>
+  </si>
+  <si>
+    <t>KEMBANGAN</t>
+  </si>
+  <si>
+    <t>PADEMANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATU CEPER </t>
+  </si>
+  <si>
+    <t>GADING SERPONG</t>
+  </si>
+  <si>
+    <t>TAMAN SARI</t>
+  </si>
+  <si>
+    <t>aaron.subroto@gmail.com</t>
+  </si>
+  <si>
+    <t>aitershereen@gmail.com</t>
+  </si>
+  <si>
+    <t>fukada.angel@gmail.com</t>
+  </si>
+  <si>
+    <t>bryanisaac.utama@gmail.com</t>
+  </si>
+  <si>
+    <t>danisegchen@gmail.com</t>
+  </si>
+  <si>
+    <t>donitacristela8@gmail.com</t>
+  </si>
+  <si>
+    <t>felicialie153@gmail.com</t>
+  </si>
+  <si>
+    <t>gizelleaimeehandoko@gmail.com</t>
+  </si>
+  <si>
+    <t>eze.tanis@gmail.com</t>
+  </si>
+  <si>
+    <t>hansyang2005@gmail.com</t>
+  </si>
+  <si>
+    <t>aldrichhansel@gmail.com</t>
+  </si>
+  <si>
+    <t>aminsunter2020@gmail.com</t>
+  </si>
+  <si>
+    <t>janiceyang2007@gmail.com</t>
+  </si>
+  <si>
+    <t>a48867669@gmail.com</t>
+  </si>
+  <si>
+    <t>jonathanlim.200828@gmail.con</t>
+  </si>
+  <si>
+    <t>ephine.dicta@gmail.com</t>
+  </si>
+  <si>
+    <t>davidson.bisuk@gmail.com</t>
+  </si>
+  <si>
+    <t>aldophang1@gmail.com</t>
+  </si>
+  <si>
+    <t>samantha.lionardi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sherina.gozali@sekolahkristencalvin.org </t>
+  </si>
+  <si>
+    <t>timothy.sitorus2811.gmail.com</t>
+  </si>
+  <si>
+    <t>valenia.chow@sekolahkristencalvin.org</t>
+  </si>
+  <si>
+    <t>vanessawidjaya580@gmail.com</t>
+  </si>
+  <si>
+    <t>wilbertarianto26@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2282,15 +2265,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="10" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2313,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2338,35 +2324,35 @@
       <c r="B2" s="4">
         <v>85970741572</v>
       </c>
-      <c r="C2" t="s">
-        <v>131</v>
+      <c r="C2" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I2" s="2">
         <v>38729</v>
       </c>
-      <c r="J2" t="s">
-        <v>442</v>
+      <c r="J2" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K2" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L2" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2376,35 +2362,35 @@
       <c r="B3" s="4">
         <v>85894851257</v>
       </c>
-      <c r="C3" t="s">
-        <v>132</v>
+      <c r="C3" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="I3" s="2">
         <v>38349</v>
       </c>
-      <c r="J3" t="s">
-        <v>479</v>
+      <c r="J3" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="K3" t="s">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="L3" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2414,35 +2400,35 @@
       <c r="B4" s="4">
         <v>8119410116</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I4" s="2">
         <v>39092</v>
       </c>
-      <c r="J4" t="s">
-        <v>458</v>
+      <c r="J4" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K4" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="L4" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2452,35 +2438,35 @@
       <c r="B5" s="4">
         <v>8999211979</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
+      <c r="C5" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I5" s="2">
         <v>40077</v>
       </c>
-      <c r="J5" t="s">
-        <v>442</v>
+      <c r="J5" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K5" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2490,35 +2476,35 @@
       <c r="B6" s="4">
         <v>6281959071355</v>
       </c>
-      <c r="C6" t="s">
-        <v>135</v>
+      <c r="C6" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="G6">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I6" s="2">
         <v>44869</v>
       </c>
-      <c r="J6" t="s">
-        <v>458</v>
+      <c r="J6" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K6" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="L6" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2528,35 +2514,35 @@
       <c r="B7" s="4">
         <v>82110090028</v>
       </c>
-      <c r="C7" t="s">
-        <v>136</v>
+      <c r="C7" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="G7">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I7" s="2">
         <v>39688</v>
       </c>
-      <c r="J7" t="s">
-        <v>480</v>
+      <c r="J7" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K7" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="L7" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2566,35 +2552,35 @@
       <c r="B8" s="4">
         <v>81586751587</v>
       </c>
-      <c r="C8" t="s">
-        <v>137</v>
+      <c r="C8" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I8" s="2">
         <v>39133</v>
       </c>
-      <c r="J8" t="s">
-        <v>476</v>
+      <c r="J8" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K8" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="L8" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2604,35 +2590,35 @@
       <c r="B9" s="4">
         <v>81908310136</v>
       </c>
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="C9" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="I9" s="2">
         <v>38729</v>
       </c>
-      <c r="J9" t="s">
-        <v>442</v>
+      <c r="J9" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K9" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L9" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2642,35 +2628,35 @@
       <c r="B10" s="4">
         <v>85719212524</v>
       </c>
-      <c r="C10" t="s">
-        <v>139</v>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="I10" s="2">
         <v>39845</v>
       </c>
-      <c r="J10" t="s">
-        <v>442</v>
+      <c r="J10" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K10" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L10" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2680,35 +2666,35 @@
       <c r="B11" s="4">
         <v>85887988806</v>
       </c>
-      <c r="C11" t="s">
-        <v>140</v>
+      <c r="C11" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I11" s="2">
         <v>38484</v>
       </c>
-      <c r="J11" t="s">
-        <v>458</v>
+      <c r="J11" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K11" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="L11" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2718,35 +2704,35 @@
       <c r="B12" s="4">
         <v>81517404811</v>
       </c>
-      <c r="C12" t="s">
-        <v>141</v>
+      <c r="C12" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="I12" s="2">
         <v>39067</v>
       </c>
-      <c r="J12" t="s">
-        <v>442</v>
+      <c r="J12" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K12" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L12" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2756,35 +2742,35 @@
       <c r="B13" s="4">
         <v>81617293000</v>
       </c>
-      <c r="C13" t="s">
-        <v>142</v>
+      <c r="C13" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I13" s="2">
         <v>39415</v>
       </c>
-      <c r="J13" t="s">
-        <v>442</v>
+      <c r="J13" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K13" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="L13" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2794,35 +2780,35 @@
       <c r="B14" s="4">
         <v>81315189982</v>
       </c>
-      <c r="C14" t="s">
-        <v>143</v>
+      <c r="C14" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="I14" s="2">
         <v>40026</v>
       </c>
-      <c r="J14" t="s">
-        <v>458</v>
+      <c r="J14" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K14" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="L14" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2832,35 +2818,35 @@
       <c r="B15" s="4">
         <v>87784234616</v>
       </c>
-      <c r="C15" t="s">
-        <v>144</v>
+      <c r="C15" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="I15" s="2">
         <v>39465</v>
       </c>
-      <c r="J15" t="s">
-        <v>458</v>
+      <c r="J15" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K15" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="L15" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2870,35 +2856,35 @@
       <c r="B16" s="4">
         <v>6287883507078</v>
       </c>
-      <c r="C16" t="s">
-        <v>145</v>
+      <c r="C16" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="G16">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I16" s="2">
         <v>39006</v>
       </c>
-      <c r="J16" t="s">
-        <v>442</v>
+      <c r="J16" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K16" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="L16" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2908,35 +2894,35 @@
       <c r="B17" s="4">
         <v>8179118389</v>
       </c>
-      <c r="C17" t="s">
-        <v>146</v>
+      <c r="C17" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="I17" s="2">
         <v>39850</v>
       </c>
-      <c r="J17" t="s">
-        <v>442</v>
+      <c r="J17" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K17" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="L17" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2946,35 +2932,35 @@
       <c r="B18" s="4">
         <v>8881815789</v>
       </c>
-      <c r="C18" t="s">
-        <v>147</v>
+      <c r="C18" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I18" s="2">
         <v>38773</v>
       </c>
-      <c r="J18" t="s">
-        <v>481</v>
+      <c r="J18" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="K18" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="L18" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2984,35 +2970,35 @@
       <c r="B19" s="4">
         <v>81285787200</v>
       </c>
-      <c r="C19" t="s">
-        <v>148</v>
+      <c r="C19" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="I19" s="2">
         <v>38971</v>
       </c>
-      <c r="J19" t="s">
-        <v>476</v>
+      <c r="J19" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K19" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="L19" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3022,35 +3008,35 @@
       <c r="B20" s="4">
         <v>81806796549</v>
       </c>
-      <c r="C20" t="s">
-        <v>149</v>
+      <c r="C20" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F20" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="I20" s="2">
         <v>39783</v>
       </c>
-      <c r="J20" t="s">
-        <v>442</v>
+      <c r="J20" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K20" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="L20" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3060,35 +3046,35 @@
       <c r="B21" s="4">
         <v>88214200490</v>
       </c>
-      <c r="C21" t="s">
-        <v>150</v>
+      <c r="C21" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="I21" s="2">
         <v>39309</v>
       </c>
-      <c r="J21" t="s">
-        <v>476</v>
+      <c r="J21" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K21" t="s">
-        <v>492</v>
+        <v>577</v>
       </c>
       <c r="L21" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3098,35 +3084,35 @@
       <c r="B22" s="4">
         <v>88808918139</v>
       </c>
-      <c r="C22" t="s">
-        <v>151</v>
+      <c r="C22" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I22" s="2">
         <v>39491</v>
       </c>
-      <c r="J22" t="s">
-        <v>476</v>
+      <c r="J22" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K22" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="L22" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3136,35 +3122,35 @@
       <c r="B23" s="4">
         <v>87720775151</v>
       </c>
-      <c r="C23" t="s">
-        <v>152</v>
+      <c r="C23" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I23" s="2">
         <v>39613</v>
       </c>
-      <c r="J23" t="s">
-        <v>476</v>
+      <c r="J23" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K23" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="L23" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3172,37 +3158,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="4">
-        <v>88801112225</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
+        <v>6281282991216</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I24" s="2">
-        <v>39420</v>
-      </c>
-      <c r="J24" t="s">
-        <v>458</v>
+        <v>44693</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K24" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="L24" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3210,37 +3196,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="4">
-        <v>6281282991216</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
+        <v>8118810845</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I25" s="2">
-        <v>44693</v>
-      </c>
-      <c r="J25" t="s">
-        <v>442</v>
+        <v>39461</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K25" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="L25" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3248,37 +3234,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="4">
-        <v>8118810845</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
+        <v>85970841570</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="I26" s="2">
-        <v>39461</v>
-      </c>
-      <c r="J26" t="s">
-        <v>476</v>
+        <v>39658</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K26" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="L26" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3286,37 +3272,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>85970841570</v>
-      </c>
-      <c r="C27" t="s">
-        <v>156</v>
+        <v>81315196486</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="I27" s="2">
-        <v>39658</v>
-      </c>
-      <c r="J27" t="s">
-        <v>442</v>
+        <v>38517</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K27" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L27" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3324,34 +3310,37 @@
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>61493222305</v>
-      </c>
-      <c r="C28" t="s">
-        <v>157</v>
+        <v>89622459234</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="I28" s="2">
-        <v>39349</v>
-      </c>
-      <c r="J28" t="s">
-        <v>480</v>
+        <v>38467</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K28" t="s">
+        <v>565</v>
       </c>
       <c r="L28" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3359,37 +3348,37 @@
         <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>81315196486</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
+        <v>8551122389</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I29" s="2">
-        <v>38517</v>
-      </c>
-      <c r="J29" t="s">
-        <v>442</v>
+        <v>38532</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K29" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="L29" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3397,37 +3386,37 @@
         <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>89622459234</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
+        <v>8128663228</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I30" s="2">
-        <v>38467</v>
-      </c>
-      <c r="J30" t="s">
-        <v>442</v>
+        <v>39092</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K30" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="L30" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3435,37 +3424,37 @@
         <v>40</v>
       </c>
       <c r="B31" s="4">
-        <v>8551122389</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
+        <v>895636633845</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>435</v>
-      </c>
-      <c r="I31" t="s">
-        <v>478</v>
-      </c>
-      <c r="J31" t="s">
-        <v>458</v>
+        <v>411</v>
+      </c>
+      <c r="I31" s="2">
+        <v>39117</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K31" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="L31" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3473,37 +3462,37 @@
         <v>41</v>
       </c>
       <c r="B32" s="4">
-        <v>8128663228</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
+        <v>81287411391</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I32" s="2">
-        <v>39092</v>
-      </c>
-      <c r="J32" t="s">
-        <v>442</v>
+        <v>38507</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K32" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
       <c r="L32" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3511,37 +3500,37 @@
         <v>42</v>
       </c>
       <c r="B33" s="4">
-        <v>895636633845</v>
-      </c>
-      <c r="C33" t="s">
-        <v>162</v>
+        <v>81248536379</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" t="s">
         <v>252</v>
       </c>
-      <c r="E33" t="s">
-        <v>281</v>
-      </c>
       <c r="F33" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="I33" s="2">
-        <v>39117</v>
-      </c>
-      <c r="J33" t="s">
-        <v>480</v>
+        <v>38394</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K33" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="L33" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3549,37 +3538,37 @@
         <v>43</v>
       </c>
       <c r="B34" s="4">
-        <v>81287411391</v>
-      </c>
-      <c r="C34" t="s">
-        <v>163</v>
+        <v>85946018803</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="I34" s="2">
-        <v>38507</v>
-      </c>
-      <c r="J34" t="s">
-        <v>480</v>
+        <v>38718</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K34" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="L34" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3587,37 +3576,37 @@
         <v>44</v>
       </c>
       <c r="B35" s="4">
-        <v>81248536379</v>
-      </c>
-      <c r="C35" t="s">
-        <v>164</v>
+        <v>85714451600</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="I35" s="2">
-        <v>38394</v>
-      </c>
-      <c r="J35" t="s">
-        <v>458</v>
+        <v>39136</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K35" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
       <c r="L35" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3625,37 +3614,37 @@
         <v>45</v>
       </c>
       <c r="B36" s="4">
-        <v>85946018803</v>
-      </c>
-      <c r="C36" t="s">
-        <v>165</v>
+        <v>81280068780</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="F36" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="I36" s="2">
-        <v>38718</v>
-      </c>
-      <c r="J36" t="s">
-        <v>476</v>
+        <v>39678</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K36" t="s">
-        <v>457</v>
+        <v>582</v>
       </c>
       <c r="L36" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3663,37 +3652,37 @@
         <v>46</v>
       </c>
       <c r="B37" s="4">
-        <v>85714451600</v>
-      </c>
-      <c r="C37" t="s">
-        <v>166</v>
+        <v>81319286288</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I37" s="2">
-        <v>39136</v>
-      </c>
-      <c r="J37" t="s">
+        <v>38490</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K37" t="s">
+        <v>583</v>
+      </c>
+      <c r="L37" t="s">
         <v>476</v>
-      </c>
-      <c r="K37" t="s">
-        <v>457</v>
-      </c>
-      <c r="L37" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3701,37 +3690,37 @@
         <v>47</v>
       </c>
       <c r="B38" s="4">
-        <v>81280068780</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
+        <v>81901506015</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I38" s="2">
-        <v>39678</v>
-      </c>
-      <c r="J38" t="s">
-        <v>480</v>
+        <v>37916</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K38" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
       <c r="L38" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3739,37 +3728,37 @@
         <v>48</v>
       </c>
       <c r="B39" s="4">
-        <v>81319286288</v>
-      </c>
-      <c r="C39" t="s">
-        <v>168</v>
+        <v>81319191682</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="I39" s="2">
-        <v>38490</v>
-      </c>
-      <c r="J39" t="s">
-        <v>480</v>
+        <v>39802</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K39" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="L39" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3777,37 +3766,37 @@
         <v>49</v>
       </c>
       <c r="B40" s="4">
-        <v>81901506015</v>
-      </c>
-      <c r="C40" t="s">
-        <v>169</v>
+        <v>81283273045</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I40" s="2">
-        <v>37916</v>
-      </c>
-      <c r="J40" t="s">
-        <v>480</v>
+        <v>39760</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K40" t="s">
-        <v>466</v>
+        <v>576</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3815,37 +3804,37 @@
         <v>50</v>
       </c>
       <c r="B41" s="4">
-        <v>81319191682</v>
-      </c>
-      <c r="C41" t="s">
-        <v>170</v>
+        <v>81268132881</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="I41" s="2">
-        <v>39802</v>
-      </c>
-      <c r="J41" t="s">
-        <v>458</v>
+        <v>39966</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K41" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="L41" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3853,37 +3842,37 @@
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>81283273045</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
+        <v>81513080458</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G42">
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I42" s="2">
-        <v>39760</v>
-      </c>
-      <c r="J42" t="s">
-        <v>476</v>
+        <v>39599</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K42" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="L42" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3891,37 +3880,37 @@
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>81268132881</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
+        <v>81911911275</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="I43" s="2">
-        <v>39966</v>
-      </c>
-      <c r="J43" t="s">
-        <v>476</v>
+        <v>38585</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K43" t="s">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="L43" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3929,37 +3918,37 @@
         <v>53</v>
       </c>
       <c r="B44" s="4">
-        <v>81513080458</v>
-      </c>
-      <c r="C44" t="s">
-        <v>173</v>
+        <v>87773582890</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I44" s="2">
-        <v>39599</v>
-      </c>
-      <c r="J44" t="s">
-        <v>458</v>
+        <v>39397</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K44" t="s">
-        <v>489</v>
+        <v>565</v>
       </c>
       <c r="L44" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3967,37 +3956,37 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>81911911275</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
+        <v>81282880367</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="I45" s="2">
-        <v>38585</v>
-      </c>
-      <c r="J45" t="s">
-        <v>480</v>
+        <v>39201</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K45" t="s">
-        <v>499</v>
+        <v>581</v>
       </c>
       <c r="L45" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4005,37 +3994,37 @@
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>87773582890</v>
-      </c>
-      <c r="C46" t="s">
-        <v>175</v>
+        <v>89636314450</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I46" s="2">
-        <v>39397</v>
-      </c>
-      <c r="J46" t="s">
-        <v>442</v>
+        <v>40096</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K46" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="L46" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4043,37 +4032,37 @@
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>81282880367</v>
-      </c>
-      <c r="C47" t="s">
-        <v>176</v>
+        <v>81282008629</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="I47" s="2">
-        <v>39201</v>
-      </c>
-      <c r="J47" t="s">
-        <v>480</v>
+        <v>39668</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K47" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="L47" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4081,37 +4070,37 @@
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>89636314450</v>
-      </c>
-      <c r="C48" t="s">
-        <v>177</v>
+        <v>81911911265</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="I48" s="2">
-        <v>40096</v>
-      </c>
-      <c r="J48" t="s">
-        <v>442</v>
+        <v>39157</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K48" t="s">
-        <v>482</v>
+        <v>581</v>
       </c>
       <c r="L48" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4119,37 +4108,37 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>81282008629</v>
-      </c>
-      <c r="C49" t="s">
-        <v>178</v>
+        <v>81513365229</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="I49" s="2">
-        <v>39668</v>
-      </c>
-      <c r="J49" t="s">
-        <v>442</v>
+        <v>38515</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K49" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="L49" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4157,37 +4146,37 @@
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>81911911265</v>
-      </c>
-      <c r="C50" t="s">
-        <v>179</v>
+        <v>87775503777</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="I50" s="2">
-        <v>39157</v>
-      </c>
-      <c r="J50" t="s">
-        <v>480</v>
+        <v>44782</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K50" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="L50" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4195,37 +4184,37 @@
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>81513365229</v>
-      </c>
-      <c r="C51" t="s">
-        <v>180</v>
+        <v>81212879712</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="F51" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="G51">
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I51" s="2">
-        <v>38515</v>
-      </c>
-      <c r="J51" t="s">
-        <v>458</v>
+        <v>38199</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K51" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="L51" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4233,37 +4222,37 @@
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>87775503777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>181</v>
+        <v>81210499597</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="I52" s="2">
-        <v>44782</v>
-      </c>
-      <c r="J52" t="s">
-        <v>458</v>
+        <v>39250</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K52" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="L52" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4271,37 +4260,37 @@
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>81212879712</v>
-      </c>
-      <c r="C53" t="s">
-        <v>182</v>
+        <v>81517404696</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H53" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I53" s="2">
-        <v>38199</v>
-      </c>
-      <c r="J53" t="s">
-        <v>480</v>
+        <v>39513</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K53" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="L53" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4309,37 +4298,37 @@
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>81210499597</v>
-      </c>
-      <c r="C54" t="s">
-        <v>183</v>
+        <v>81183844069</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I54" s="2">
-        <v>39250</v>
-      </c>
-      <c r="J54" t="s">
-        <v>442</v>
+        <v>39749</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K54" t="s">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="L54" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4347,37 +4336,37 @@
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>81517404696</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
+        <v>81281630278</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I55" s="2">
-        <v>39513</v>
-      </c>
-      <c r="J55" t="s">
-        <v>442</v>
+        <v>39016</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K55" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="L55" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4385,37 +4374,37 @@
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>81183844069</v>
-      </c>
-      <c r="C56" t="s">
-        <v>185</v>
+        <v>8119426189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G56">
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="I56" s="2">
-        <v>39749</v>
-      </c>
-      <c r="J56" t="s">
-        <v>480</v>
+        <v>39911</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K56" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="L56" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4423,37 +4412,37 @@
         <v>66</v>
       </c>
       <c r="B57" s="4">
-        <v>81281630278</v>
-      </c>
-      <c r="C57" t="s">
-        <v>186</v>
+        <v>87818282000</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="G57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="I57" s="2">
-        <v>39016</v>
-      </c>
-      <c r="J57" t="s">
-        <v>480</v>
+        <v>39101</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K57" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="L57" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4461,37 +4450,37 @@
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>8119426189</v>
-      </c>
-      <c r="C58" t="s">
-        <v>187</v>
+        <v>8118121233</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="I58" s="2">
-        <v>39911</v>
-      </c>
-      <c r="J58" t="s">
-        <v>480</v>
+        <v>39252</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K58" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="L58" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4499,37 +4488,37 @@
         <v>68</v>
       </c>
       <c r="B59" s="4">
-        <v>87818282000</v>
-      </c>
-      <c r="C59" t="s">
-        <v>188</v>
+        <v>82298982801</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="I59" s="2">
-        <v>39101</v>
-      </c>
-      <c r="J59" t="s">
-        <v>458</v>
+        <v>40206</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K59" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="L59" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4537,37 +4526,37 @@
         <v>69</v>
       </c>
       <c r="B60" s="4">
-        <v>8118121233</v>
-      </c>
-      <c r="C60" t="s">
-        <v>189</v>
+        <v>85310967061</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="I60" s="2">
-        <v>39252</v>
-      </c>
-      <c r="J60" t="s">
-        <v>442</v>
+        <v>38915</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="L60" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4575,37 +4564,37 @@
         <v>70</v>
       </c>
       <c r="B61" s="4">
-        <v>82298982801</v>
-      </c>
-      <c r="C61" t="s">
-        <v>190</v>
+        <v>81383185789</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I61" s="2">
-        <v>40206</v>
-      </c>
-      <c r="J61" t="s">
-        <v>458</v>
+        <v>39343</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="K61" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4613,37 +4602,37 @@
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>85310967061</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
+        <v>8161948733</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="F62" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="I62" s="2">
-        <v>38915</v>
-      </c>
-      <c r="J62" t="s">
-        <v>442</v>
+        <v>38511</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K62" t="s">
-        <v>482</v>
+        <v>588</v>
       </c>
       <c r="L62" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4651,37 +4640,37 @@
         <v>72</v>
       </c>
       <c r="B63" s="4">
-        <v>81383185789</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
+        <v>81213067344</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="F63" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="G63">
         <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I63" s="2">
-        <v>39343</v>
-      </c>
-      <c r="J63" t="s">
-        <v>479</v>
+        <v>39078</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="L63" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4689,37 +4678,37 @@
         <v>73</v>
       </c>
       <c r="B64" s="4">
-        <v>8161948733</v>
-      </c>
-      <c r="C64" t="s">
-        <v>193</v>
+        <v>81807790220</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="F64" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="I64" s="2">
-        <v>38511</v>
-      </c>
-      <c r="J64" t="s">
-        <v>458</v>
+        <v>39036</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K64" t="s">
+        <v>576</v>
+      </c>
+      <c r="L64" t="s">
         <v>503</v>
-      </c>
-      <c r="L64" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4727,37 +4716,37 @@
         <v>74</v>
       </c>
       <c r="B65" s="4">
-        <v>81213067344</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
+        <v>628811231164</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I65" s="2">
-        <v>39078</v>
-      </c>
-      <c r="J65" t="s">
-        <v>442</v>
+        <v>39646</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K65" t="s">
+        <v>569</v>
+      </c>
+      <c r="L65" t="s">
         <v>504</v>
-      </c>
-      <c r="L65" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4765,37 +4754,37 @@
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>81807790220</v>
-      </c>
-      <c r="C66" t="s">
-        <v>195</v>
+        <v>87802082009</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="I66" s="2">
-        <v>39036</v>
-      </c>
-      <c r="J66" t="s">
-        <v>476</v>
+        <v>40165</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K66" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4803,37 +4792,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>628811231164</v>
-      </c>
-      <c r="C67" t="s">
-        <v>196</v>
+        <v>81908311705</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="I67" s="2">
-        <v>39646</v>
-      </c>
-      <c r="J67" t="s">
-        <v>458</v>
+        <v>39926</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K67" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="L67" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4841,37 +4830,37 @@
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>87802082009</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
+        <v>81386306126</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="F68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I68" s="2">
-        <v>40165</v>
-      </c>
-      <c r="J68" t="s">
-        <v>476</v>
+        <v>38054</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K68" t="s">
-        <v>457</v>
+        <v>568</v>
       </c>
       <c r="L68" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4879,37 +4868,37 @@
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>81908311705</v>
-      </c>
-      <c r="C69" t="s">
-        <v>198</v>
+        <v>81211093743</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I69" s="2">
-        <v>39926</v>
-      </c>
-      <c r="J69" t="s">
-        <v>458</v>
+        <v>38949</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K69" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
       <c r="L69" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4917,37 +4906,37 @@
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>81386306126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
+        <v>81380574701</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="I70" s="2">
-        <v>38054</v>
-      </c>
-      <c r="J70" t="s">
-        <v>442</v>
+        <v>40060</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K70" t="s">
-        <v>462</v>
+        <v>572</v>
       </c>
       <c r="L70" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4955,37 +4944,37 @@
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>81211093743</v>
-      </c>
-      <c r="C71" t="s">
-        <v>200</v>
+        <v>6281282338328</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="I71" s="2">
-        <v>38949</v>
-      </c>
-      <c r="J71" t="s">
-        <v>442</v>
+        <v>39690</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K71" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="L71" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4993,37 +4982,37 @@
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>81380574701</v>
-      </c>
-      <c r="C72" t="s">
-        <v>201</v>
+        <v>81264035807</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H72" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="I72" s="2">
-        <v>40060</v>
-      </c>
-      <c r="J72" t="s">
-        <v>458</v>
+        <v>44849</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K72" t="s">
-        <v>488</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5031,37 +5020,37 @@
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>6281282338328</v>
-      </c>
-      <c r="C73" t="s">
-        <v>202</v>
+        <v>6287889889769</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="G73">
         <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I73" s="2">
-        <v>39690</v>
-      </c>
-      <c r="J73" t="s">
-        <v>442</v>
+        <v>39560</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K73" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="L73" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5069,37 +5058,37 @@
         <v>83</v>
       </c>
       <c r="B74" s="4">
-        <v>81264035807</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
+        <v>87779103435</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="I74" s="2">
-        <v>44849</v>
-      </c>
-      <c r="J74" t="s">
-        <v>476</v>
+        <v>38298</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K74" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="L74" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5107,37 +5096,37 @@
         <v>84</v>
       </c>
       <c r="B75" s="4">
-        <v>6287889889769</v>
-      </c>
-      <c r="C75" t="s">
-        <v>204</v>
+        <v>87883886797</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I75" s="2">
-        <v>39560</v>
-      </c>
-      <c r="J75" t="s">
-        <v>476</v>
+        <v>38550</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K75" t="s">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="L75" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5145,37 +5134,37 @@
         <v>85</v>
       </c>
       <c r="B76" s="4">
-        <v>87779103435</v>
-      </c>
-      <c r="C76" t="s">
-        <v>205</v>
+        <v>81384393945</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F76" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="I76" s="2">
-        <v>38298</v>
-      </c>
-      <c r="J76" t="s">
-        <v>458</v>
+        <v>39541</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K76" t="s">
-        <v>484</v>
+        <v>572</v>
       </c>
       <c r="L76" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5183,37 +5172,37 @@
         <v>86</v>
       </c>
       <c r="B77" s="4">
-        <v>87883886797</v>
-      </c>
-      <c r="C77" t="s">
-        <v>206</v>
+        <v>8119351803</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I77" s="2">
-        <v>38550</v>
-      </c>
-      <c r="J77" t="s">
-        <v>476</v>
+        <v>39159</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K77" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="L77" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5221,37 +5210,37 @@
         <v>87</v>
       </c>
       <c r="B78" s="4">
-        <v>81384393945</v>
-      </c>
-      <c r="C78" t="s">
-        <v>207</v>
+        <v>8174991508</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="F78" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="G78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="I78" s="2">
-        <v>39541</v>
-      </c>
-      <c r="J78" t="s">
-        <v>458</v>
+        <v>39309</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K78" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="L78" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5259,37 +5248,37 @@
         <v>88</v>
       </c>
       <c r="B79" s="4">
-        <v>8119351803</v>
-      </c>
-      <c r="C79" t="s">
-        <v>208</v>
+        <v>6289627995962</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="I79" s="2">
-        <v>39159</v>
-      </c>
-      <c r="J79" t="s">
-        <v>442</v>
+        <v>38749</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K79" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="L79" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5297,37 +5286,37 @@
         <v>89</v>
       </c>
       <c r="B80" s="4">
-        <v>8174991508</v>
-      </c>
-      <c r="C80" t="s">
-        <v>209</v>
+        <v>895331838593</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F80" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I80" s="2">
-        <v>39309</v>
-      </c>
-      <c r="J80" t="s">
-        <v>458</v>
+        <v>39432</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K80" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="L80" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -5335,37 +5324,37 @@
         <v>90</v>
       </c>
       <c r="B81" s="4">
-        <v>6289627995962</v>
-      </c>
-      <c r="C81" t="s">
-        <v>210</v>
+        <v>81314543001</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="G81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="I81" s="2">
-        <v>38749</v>
-      </c>
-      <c r="J81" t="s">
-        <v>442</v>
+        <v>38357</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K81" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="L81" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -5373,37 +5362,37 @@
         <v>91</v>
       </c>
       <c r="B82" s="4">
-        <v>895331838593</v>
-      </c>
-      <c r="C82" t="s">
-        <v>211</v>
+        <v>82258110063</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I82" s="2">
-        <v>39432</v>
-      </c>
-      <c r="J82" t="s">
-        <v>442</v>
+        <v>39162</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K82" t="s">
-        <v>462</v>
+        <v>576</v>
       </c>
       <c r="L82" t="s">
-        <v>588</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5411,37 +5400,37 @@
         <v>92</v>
       </c>
       <c r="B83" s="4">
-        <v>81314543001</v>
-      </c>
-      <c r="C83" t="s">
-        <v>212</v>
+        <v>89629966514</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="G83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H83" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="I83" s="2">
-        <v>38357</v>
-      </c>
-      <c r="J83" t="s">
-        <v>442</v>
+        <v>38962</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K83" t="s">
-        <v>462</v>
+        <v>576</v>
       </c>
       <c r="L83" t="s">
-        <v>589</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,37 +5438,37 @@
         <v>93</v>
       </c>
       <c r="B84" s="4">
-        <v>82258110063</v>
-      </c>
-      <c r="C84" t="s">
-        <v>213</v>
+        <v>81381076901</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I84" s="2">
-        <v>39162</v>
-      </c>
-      <c r="J84" t="s">
-        <v>476</v>
+        <v>44773</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K84" t="s">
-        <v>457</v>
+        <v>585</v>
       </c>
       <c r="L84" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -5487,37 +5476,37 @@
         <v>94</v>
       </c>
       <c r="B85" s="4">
-        <v>89629966514</v>
-      </c>
-      <c r="C85" t="s">
-        <v>214</v>
+        <v>85891238559</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E85" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="F85" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="G85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="I85" s="2">
-        <v>38962</v>
-      </c>
-      <c r="J85" t="s">
-        <v>476</v>
+        <v>39996</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K85" t="s">
-        <v>457</v>
+        <v>569</v>
       </c>
       <c r="L85" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5525,37 +5514,37 @@
         <v>95</v>
       </c>
       <c r="B86" s="4">
-        <v>81381076901</v>
-      </c>
-      <c r="C86" t="s">
-        <v>215</v>
+        <v>81280484790</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="D86" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="F86" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="G86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I86" s="2">
-        <v>44773</v>
-      </c>
-      <c r="J86" t="s">
-        <v>480</v>
+        <v>39535</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K86" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="L86" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5563,37 +5552,37 @@
         <v>96</v>
       </c>
       <c r="B87" s="4">
-        <v>85891238559</v>
-      </c>
-      <c r="C87" t="s">
-        <v>216</v>
+        <v>82310918563</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I87" s="2">
-        <v>39996</v>
-      </c>
-      <c r="J87" t="s">
-        <v>458</v>
+        <v>38684</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K87" t="s">
-        <v>485</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5601,37 +5590,37 @@
         <v>97</v>
       </c>
       <c r="B88" s="4">
-        <v>81280484790</v>
-      </c>
-      <c r="C88" t="s">
-        <v>217</v>
+        <v>895365788277</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F88" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G88">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I88" s="2">
-        <v>39535</v>
-      </c>
-      <c r="J88" t="s">
-        <v>442</v>
+        <v>38169</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K88" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5639,37 +5628,37 @@
         <v>98</v>
       </c>
       <c r="B89" s="4">
-        <v>82310918563</v>
-      </c>
-      <c r="C89" t="s">
-        <v>218</v>
+        <v>8992855777</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="G89">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="I89" s="2">
-        <v>38684</v>
-      </c>
-      <c r="J89" t="s">
-        <v>480</v>
+        <v>39096</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K89" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="L89" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -5677,37 +5666,37 @@
         <v>99</v>
       </c>
       <c r="B90" s="4">
-        <v>8172367111</v>
-      </c>
-      <c r="C90" t="s">
-        <v>219</v>
+        <v>8111174795</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="I90" s="2">
-        <v>39118</v>
-      </c>
-      <c r="J90" t="s">
-        <v>480</v>
+        <v>39443</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K90" t="s">
-        <v>464</v>
+        <v>589</v>
       </c>
       <c r="L90" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -5715,37 +5704,37 @@
         <v>100</v>
       </c>
       <c r="B91" s="4">
-        <v>895365788277</v>
-      </c>
-      <c r="C91" t="s">
-        <v>220</v>
+        <v>81366778822</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="F91" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="G91">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="I91" s="2">
-        <v>38169</v>
-      </c>
-      <c r="J91" t="s">
-        <v>476</v>
+        <v>39049</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K91" t="s">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5753,37 +5742,37 @@
         <v>101</v>
       </c>
       <c r="B92" s="4">
-        <v>8992855777</v>
-      </c>
-      <c r="C92" t="s">
+        <v>85211423546</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" t="s">
         <v>221</v>
       </c>
-      <c r="D92" t="s">
-        <v>251</v>
-      </c>
       <c r="E92" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F92" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I92" s="2">
-        <v>39096</v>
-      </c>
-      <c r="J92" t="s">
-        <v>458</v>
+        <v>39033</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K92" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="L92" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -5791,37 +5780,37 @@
         <v>102</v>
       </c>
       <c r="B93" s="4">
-        <v>8111174795</v>
-      </c>
-      <c r="C93" t="s">
+        <v>6061720</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D93" t="s">
         <v>222</v>
       </c>
-      <c r="D93" t="s">
-        <v>251</v>
-      </c>
       <c r="E93" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="I93" s="2">
-        <v>39443</v>
-      </c>
-      <c r="J93" t="s">
-        <v>442</v>
+        <v>40144</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K93" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="L93" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -5829,37 +5818,37 @@
         <v>103</v>
       </c>
       <c r="B94" s="4">
-        <v>81366778822</v>
-      </c>
-      <c r="C94" t="s">
-        <v>223</v>
+        <v>81315058225</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F94" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I94" s="2">
-        <v>39049</v>
-      </c>
-      <c r="J94" t="s">
-        <v>476</v>
+        <v>38652</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K94" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="L94" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5867,37 +5856,37 @@
         <v>104</v>
       </c>
       <c r="B95" s="4">
-        <v>85211423546</v>
-      </c>
-      <c r="C95" t="s">
-        <v>224</v>
+        <v>82123730633</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>334</v>
+        <v>558</v>
       </c>
       <c r="F95" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="G95">
         <v>10</v>
       </c>
       <c r="H95" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I95" s="2">
-        <v>39033</v>
-      </c>
-      <c r="J95" t="s">
-        <v>442</v>
+        <v>39059</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K95" t="s">
-        <v>462</v>
+        <v>571</v>
       </c>
       <c r="L95" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -5905,37 +5894,37 @@
         <v>105</v>
       </c>
       <c r="B96" s="4">
-        <v>6061720</v>
-      </c>
-      <c r="C96" t="s">
-        <v>225</v>
+        <v>85101968160</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="F96" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="G96">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="I96" s="2">
-        <v>40144</v>
-      </c>
-      <c r="J96" t="s">
-        <v>442</v>
+        <v>40009</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K96" t="s">
-        <v>462</v>
+        <v>588</v>
       </c>
       <c r="L96" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5943,37 +5932,37 @@
         <v>106</v>
       </c>
       <c r="B97" s="4">
-        <v>81315058225</v>
-      </c>
-      <c r="C97" t="s">
-        <v>226</v>
+        <v>81287349615</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E97" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F97" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G97">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I97" s="2">
-        <v>38652</v>
-      </c>
-      <c r="J97" t="s">
-        <v>458</v>
+        <v>39108</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K97" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="L97" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5981,37 +5970,37 @@
         <v>107</v>
       </c>
       <c r="B98" s="4">
-        <v>82123730633</v>
-      </c>
-      <c r="C98" t="s">
-        <v>227</v>
+        <v>81316571313</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E98" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H98" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I98" s="2">
-        <v>39059</v>
-      </c>
-      <c r="J98" t="s">
-        <v>476</v>
+        <v>39685</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K98" t="s">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="L98" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -6019,37 +6008,37 @@
         <v>108</v>
       </c>
       <c r="B99" s="4">
-        <v>85101968160</v>
-      </c>
-      <c r="C99" t="s">
-        <v>228</v>
+        <v>81224475438</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F99" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I99" s="2">
-        <v>40009</v>
-      </c>
-      <c r="J99" t="s">
-        <v>458</v>
+        <v>38031</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="K99" t="s">
-        <v>503</v>
+        <v>591</v>
       </c>
       <c r="L99" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -6057,37 +6046,37 @@
         <v>109</v>
       </c>
       <c r="B100" s="4">
-        <v>81287349615</v>
-      </c>
-      <c r="C100" t="s">
-        <v>229</v>
+        <v>8114448046</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F100" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="I100" s="2">
-        <v>39108</v>
-      </c>
-      <c r="J100" t="s">
-        <v>458</v>
+        <v>39996</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K100" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="L100" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -6095,37 +6084,37 @@
         <v>110</v>
       </c>
       <c r="B101" s="4">
-        <v>81316571313</v>
-      </c>
-      <c r="C101" t="s">
-        <v>230</v>
+        <v>85777541775</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E101" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="F101" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="G101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I101" s="2">
-        <v>39685</v>
-      </c>
-      <c r="J101" t="s">
-        <v>476</v>
+        <v>40033</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K101" t="s">
-        <v>457</v>
+        <v>571</v>
       </c>
       <c r="L101" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -6133,37 +6122,37 @@
         <v>111</v>
       </c>
       <c r="B102" s="4">
-        <v>81224475438</v>
-      </c>
-      <c r="C102" t="s">
-        <v>231</v>
+        <v>81388035207</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="G102">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H102" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="I102" s="2">
-        <v>38031</v>
-      </c>
-      <c r="J102" t="s">
-        <v>480</v>
+        <v>39391</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K102" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="L102" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -6171,37 +6160,37 @@
         <v>112</v>
       </c>
       <c r="B103" s="4">
-        <v>8114448046</v>
-      </c>
-      <c r="C103" t="s">
-        <v>232</v>
+        <v>87777271206</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="G103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="I103" s="2">
-        <v>39996</v>
-      </c>
-      <c r="J103" t="s">
-        <v>458</v>
+        <v>39078</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K103" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -6209,37 +6198,37 @@
         <v>113</v>
       </c>
       <c r="B104" s="4">
-        <v>85777541775</v>
-      </c>
-      <c r="C104" t="s">
-        <v>233</v>
+        <v>81910508613</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="F104" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="I104" s="2">
-        <v>40033</v>
-      </c>
-      <c r="J104" t="s">
-        <v>476</v>
+        <v>39338</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K104" t="s">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="L104" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -6247,37 +6236,37 @@
         <v>114</v>
       </c>
       <c r="B105" s="4">
-        <v>81388035207</v>
-      </c>
-      <c r="C105" t="s">
-        <v>234</v>
+        <v>81288001603</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D105" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="F105" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I105" s="2">
-        <v>39391</v>
-      </c>
-      <c r="J105" t="s">
-        <v>476</v>
+        <v>39118</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K105" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="L105" t="s">
-        <v>610</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -6285,37 +6274,37 @@
         <v>115</v>
       </c>
       <c r="B106" s="4">
-        <v>87777271206</v>
-      </c>
-      <c r="C106" t="s">
-        <v>235</v>
+        <v>8996399399</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D106" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="F106" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I106" s="2">
-        <v>39078</v>
-      </c>
-      <c r="J106" t="s">
-        <v>458</v>
+        <v>38984</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K106" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="L106" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -6323,37 +6312,37 @@
         <v>116</v>
       </c>
       <c r="B107" s="4">
-        <v>81910508613</v>
-      </c>
-      <c r="C107" t="s">
-        <v>236</v>
+        <v>82123622107</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="F107" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>472</v>
+        <v>401</v>
       </c>
       <c r="I107" s="2">
-        <v>39338</v>
-      </c>
-      <c r="J107" t="s">
-        <v>476</v>
+        <v>38161</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K107" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="L107" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -6361,37 +6350,37 @@
         <v>117</v>
       </c>
       <c r="B108" s="4">
-        <v>81288001603</v>
-      </c>
-      <c r="C108" t="s">
-        <v>237</v>
+        <v>85372888283</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="F108" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I108" s="2">
-        <v>39118</v>
-      </c>
-      <c r="J108" t="s">
-        <v>442</v>
+        <v>44766</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K108" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="L108" t="s">
-        <v>613</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -6399,37 +6388,37 @@
         <v>118</v>
       </c>
       <c r="B109" s="4">
-        <v>8996399399</v>
-      </c>
-      <c r="C109" t="s">
-        <v>238</v>
+        <v>81285084964</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="F109" t="s">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="G109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I109" s="2">
-        <v>38984</v>
-      </c>
-      <c r="J109" t="s">
-        <v>476</v>
+        <v>38201</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K109" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="L109" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -6437,37 +6426,37 @@
         <v>119</v>
       </c>
       <c r="B110" s="4">
-        <v>82123622107</v>
-      </c>
-      <c r="C110" t="s">
-        <v>239</v>
+        <v>81282212221</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E110" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="G110">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I110" s="2">
-        <v>38161</v>
-      </c>
-      <c r="J110" t="s">
-        <v>476</v>
+        <v>44761</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K110" t="s">
-        <v>457</v>
+        <v>568</v>
       </c>
       <c r="L110" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -6475,37 +6464,37 @@
         <v>120</v>
       </c>
       <c r="B111" s="4">
-        <v>85372888283</v>
-      </c>
-      <c r="C111" t="s">
-        <v>240</v>
+        <v>81254355663</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E111" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="F111" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="G111">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="I111" s="2">
-        <v>44766</v>
-      </c>
-      <c r="J111" t="s">
-        <v>476</v>
+        <v>38715</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K111" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="L111" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -6513,37 +6502,37 @@
         <v>121</v>
       </c>
       <c r="B112" s="4">
-        <v>81285084964</v>
-      </c>
-      <c r="C112" t="s">
-        <v>241</v>
+        <v>85692857214</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F112" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G112">
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I112" s="2">
-        <v>38201</v>
-      </c>
-      <c r="J112" t="s">
-        <v>476</v>
+        <v>38653</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K112" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="L112" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -6551,37 +6540,37 @@
         <v>122</v>
       </c>
       <c r="B113" s="4">
-        <v>81282212221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>242</v>
+        <v>89510029769</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F113" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="I113" s="2">
-        <v>44761</v>
-      </c>
-      <c r="J113" t="s">
-        <v>442</v>
+        <v>39144</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="K113" t="s">
-        <v>462</v>
+        <v>579</v>
       </c>
       <c r="L113" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -6589,37 +6578,37 @@
         <v>123</v>
       </c>
       <c r="B114" s="4">
-        <v>81254355663</v>
-      </c>
-      <c r="C114" t="s">
-        <v>243</v>
+        <v>89506557188</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E114" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F114" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="G114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="I114" s="2">
-        <v>38715</v>
-      </c>
-      <c r="J114" t="s">
-        <v>442</v>
+        <v>38591</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K114" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="L114" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -6627,37 +6616,37 @@
         <v>124</v>
       </c>
       <c r="B115" s="4">
-        <v>85692857214</v>
-      </c>
-      <c r="C115" t="s">
-        <v>244</v>
+        <v>81510654337</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E115" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F115" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G115">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I115" s="2">
-        <v>38653</v>
-      </c>
-      <c r="J115" t="s">
-        <v>458</v>
+        <v>39396</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K115" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="L115" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -6665,37 +6654,37 @@
         <v>125</v>
       </c>
       <c r="B116" s="4">
-        <v>89510029769</v>
-      </c>
-      <c r="C116" t="s">
-        <v>245</v>
+        <v>81211859285</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E116" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="F116" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="G116">
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="I116" s="2">
-        <v>39144</v>
-      </c>
-      <c r="J116" t="s">
-        <v>476</v>
+        <v>39182</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K116" t="s">
-        <v>494</v>
+        <v>589</v>
       </c>
       <c r="L116" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -6703,37 +6692,37 @@
         <v>126</v>
       </c>
       <c r="B117" s="4">
-        <v>89506557188</v>
-      </c>
-      <c r="C117" t="s">
-        <v>246</v>
+        <v>85810060287</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E117" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="F117" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="G117">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="I117" s="2">
-        <v>38591</v>
-      </c>
-      <c r="J117" t="s">
-        <v>442</v>
+        <v>40298</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K117" t="s">
-        <v>462</v>
+        <v>589</v>
       </c>
       <c r="L117" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -6741,154 +6730,45 @@
         <v>127</v>
       </c>
       <c r="B118" s="4">
-        <v>81510654337</v>
-      </c>
-      <c r="C118" t="s">
-        <v>247</v>
+        <v>81213693286</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F118" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I118" s="2">
-        <v>39396</v>
-      </c>
-      <c r="J118" t="s">
-        <v>458</v>
+        <v>39814</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="K118" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="L118" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119" s="4">
-        <v>81211859285</v>
-      </c>
-      <c r="C119" t="s">
-        <v>248</v>
-      </c>
-      <c r="D119" t="s">
-        <v>251</v>
-      </c>
-      <c r="E119" t="s">
-        <v>356</v>
-      </c>
-      <c r="F119" t="s">
-        <v>431</v>
-      </c>
-      <c r="G119">
-        <v>10</v>
-      </c>
-      <c r="H119" t="s">
-        <v>441</v>
-      </c>
-      <c r="I119" s="2">
-        <v>39182</v>
-      </c>
-      <c r="J119" t="s">
-        <v>442</v>
-      </c>
-      <c r="K119" t="s">
-        <v>504</v>
-      </c>
-      <c r="L119" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="4">
-        <v>85810060287</v>
-      </c>
-      <c r="C120" t="s">
-        <v>249</v>
-      </c>
-      <c r="D120" t="s">
-        <v>251</v>
-      </c>
-      <c r="E120" t="s">
-        <v>357</v>
-      </c>
-      <c r="F120" t="s">
-        <v>432</v>
-      </c>
-      <c r="G120">
-        <v>8</v>
-      </c>
-      <c r="H120" t="s">
-        <v>435</v>
-      </c>
-      <c r="I120" s="2">
-        <v>40298</v>
-      </c>
-      <c r="J120" t="s">
-        <v>442</v>
-      </c>
-      <c r="K120" t="s">
-        <v>504</v>
-      </c>
-      <c r="L120" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" s="4">
-        <v>81213693286</v>
-      </c>
-      <c r="C121" t="s">
-        <v>250</v>
-      </c>
-      <c r="D121" t="s">
-        <v>252</v>
-      </c>
-      <c r="E121" t="s">
-        <v>358</v>
-      </c>
-      <c r="F121" t="s">
-        <v>366</v>
-      </c>
-      <c r="G121">
-        <v>8</v>
-      </c>
-      <c r="H121" t="s">
-        <v>435</v>
-      </c>
-      <c r="I121" s="2">
-        <v>39814</v>
-      </c>
-      <c r="J121" t="s">
-        <v>442</v>
-      </c>
-      <c r="K121" t="s">
-        <v>490</v>
-      </c>
-      <c r="L121" t="s">
-        <v>626</v>
-      </c>
+      <c r="B119"/>
+      <c r="C119"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/data_remaja.xlsx
+++ b/frontend/data_remaja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remaja\absen-remaja\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829A5FF-2B79-4C5D-B1DB-5271488DA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003A3E9-4E67-40C2-8514-644D9EBC9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="617">
   <si>
     <t>nama</t>
   </si>
@@ -699,12 +699,6 @@
   </si>
   <si>
     <t>gabrielle.liman245@gmail.com</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
   </si>
   <si>
     <t>Game</t>
@@ -1890,6 +1884,12 @@
   </si>
   <si>
     <t>wilbertarianto26@gmail.com</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -2265,21 +2265,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="10" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,31 +2295,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2325,37 +2330,37 @@
         <v>85970741572</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" t="s">
         <v>221</v>
       </c>
-      <c r="E2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="I2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="2">
         <v>38729</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K2" t="s">
-        <v>565</v>
+      <c r="K2" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2365,35 +2370,35 @@
       <c r="C3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
-        <v>224</v>
+      <c r="E3" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3">
+        <v>222</v>
+      </c>
+      <c r="G3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" s="2">
         <v>38349</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K3" t="s">
-        <v>566</v>
+      <c r="K3" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="L3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="M3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2403,35 +2408,35 @@
       <c r="C4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" t="s">
-        <v>225</v>
+      <c r="E4" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4">
+        <v>223</v>
+      </c>
+      <c r="G4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="I4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="2">
         <v>39092</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K4" t="s">
-        <v>567</v>
+      <c r="K4" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2441,35 +2446,35 @@
       <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" t="s">
-        <v>226</v>
+      <c r="E5" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>400</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="I5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="2">
         <v>40077</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K5" t="s">
-        <v>568</v>
+      <c r="K5" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2477,37 +2482,37 @@
         <v>6281959071355</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" t="s">
-        <v>227</v>
+        <v>592</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J6" s="2">
         <v>44869</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K6" t="s">
-        <v>569</v>
+      <c r="K6" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2515,37 +2520,37 @@
         <v>82110090028</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
+        <v>593</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J7" s="2">
         <v>39688</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K7" t="s">
-        <v>570</v>
+      <c r="K7" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="M7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2555,35 +2560,35 @@
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" t="s">
-        <v>229</v>
+      <c r="E8" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G8">
+        <v>227</v>
+      </c>
+      <c r="G8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="I8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="2">
         <v>39133</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K8" t="s">
-        <v>571</v>
+      <c r="K8" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2593,35 +2598,35 @@
       <c r="C9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" t="s">
-        <v>230</v>
+      <c r="E9" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9">
+        <v>228</v>
+      </c>
+      <c r="G9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
-        <v>401</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="I9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="2">
         <v>38729</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K9" t="s">
-        <v>565</v>
+      <c r="K9" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2631,35 +2636,35 @@
       <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" t="s">
-        <v>231</v>
+      <c r="E10" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10">
+        <v>229</v>
+      </c>
+      <c r="G10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>402</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="I10" t="s">
+        <v>400</v>
+      </c>
+      <c r="J10" s="2">
         <v>39845</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K10" t="s">
-        <v>565</v>
+      <c r="K10" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2669,35 +2674,35 @@
       <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" t="s">
-        <v>232</v>
+      <c r="E11" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G11">
+        <v>230</v>
+      </c>
+      <c r="G11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="I11" t="s">
+        <v>398</v>
+      </c>
+      <c r="J11" s="2">
         <v>38484</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K11" t="s">
-        <v>572</v>
+      <c r="K11" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2707,35 +2712,35 @@
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" t="s">
-        <v>233</v>
+      <c r="E12" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12">
+        <v>231</v>
+      </c>
+      <c r="G12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>403</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="I12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J12" s="2">
         <v>39067</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K12" t="s">
-        <v>565</v>
+      <c r="K12" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2743,37 +2748,37 @@
         <v>81617293000</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" t="s">
-        <v>234</v>
+        <v>594</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13">
+        <v>232</v>
+      </c>
+      <c r="G13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>404</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="I13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13" s="2">
         <v>39415</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K13" t="s">
-        <v>568</v>
+      <c r="K13" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2783,35 +2788,35 @@
       <c r="C14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" t="s">
-        <v>235</v>
+      <c r="E14" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
-        <v>405</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="I14" t="s">
+        <v>403</v>
+      </c>
+      <c r="J14" s="2">
         <v>40026</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K14" t="s">
-        <v>573</v>
+      <c r="K14" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2821,35 +2826,35 @@
       <c r="C15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" t="s">
-        <v>236</v>
+      <c r="E15" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15">
+        <v>234</v>
+      </c>
+      <c r="G15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>406</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="I15" t="s">
+        <v>404</v>
+      </c>
+      <c r="J15" s="2">
         <v>39465</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K15" t="s">
-        <v>569</v>
+      <c r="K15" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2859,35 +2864,35 @@
       <c r="C16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
+      <c r="E16" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
-      </c>
-      <c r="G16">
+        <v>225</v>
+      </c>
+      <c r="G16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
-        <v>400</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="I16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" s="2">
         <v>39006</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K16" t="s">
-        <v>574</v>
+      <c r="K16" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="M16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2897,35 +2902,35 @@
       <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" t="s">
-        <v>234</v>
+      <c r="E17" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17">
+        <v>232</v>
+      </c>
+      <c r="G17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
-        <v>407</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="I17" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" s="2">
         <v>39850</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K17" t="s">
-        <v>574</v>
+      <c r="K17" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="M17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2935,35 +2940,35 @@
       <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" t="s">
-        <v>237</v>
+      <c r="E18" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18">
+        <v>235</v>
+      </c>
+      <c r="G18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
-        <v>400</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="I18" t="s">
+        <v>398</v>
+      </c>
+      <c r="J18" s="2">
         <v>38773</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="K18" t="s">
-        <v>575</v>
+      <c r="K18" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="L18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="M18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2973,35 +2978,35 @@
       <c r="C19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" t="s">
-        <v>238</v>
+      <c r="E19" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19">
+        <v>236</v>
+      </c>
+      <c r="G19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
-        <v>408</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="I19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J19" s="2">
         <v>38971</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K19" t="s">
-        <v>576</v>
+      <c r="K19" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3009,37 +3014,37 @@
         <v>81806796549</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>239</v>
+        <v>595</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20">
+        <v>237</v>
+      </c>
+      <c r="G20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20">
         <v>8</v>
       </c>
-      <c r="H20" t="s">
-        <v>407</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="I20" t="s">
+        <v>405</v>
+      </c>
+      <c r="J20" s="2">
         <v>39783</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K20" t="s">
-        <v>574</v>
+      <c r="K20" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="M20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3049,35 +3054,35 @@
       <c r="C21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" t="s">
-        <v>240</v>
+      <c r="E21" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H21">
         <v>10</v>
       </c>
-      <c r="H21" t="s">
-        <v>409</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="I21" t="s">
+        <v>407</v>
+      </c>
+      <c r="J21" s="2">
         <v>39309</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K21" t="s">
-        <v>577</v>
+      <c r="K21" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="M21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3087,35 +3092,35 @@
       <c r="C22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" t="s">
-        <v>241</v>
+      <c r="E22" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
-        <v>400</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="I22" t="s">
+        <v>398</v>
+      </c>
+      <c r="J22" s="2">
         <v>39491</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K22" t="s">
-        <v>578</v>
+      <c r="K22" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="M22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3123,37 +3128,37 @@
         <v>87720775151</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" t="s">
-        <v>242</v>
+        <v>596</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23">
+        <v>240</v>
+      </c>
+      <c r="G23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
-        <v>400</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="I23" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="2">
         <v>39613</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K23" t="s">
-        <v>579</v>
+      <c r="K23" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="M23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3163,35 +3168,35 @@
       <c r="C24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" t="s">
-        <v>244</v>
+      <c r="E24" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="H24" t="s">
-        <v>400</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="I24" t="s">
+        <v>398</v>
+      </c>
+      <c r="J24" s="2">
         <v>44693</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K24" t="s">
-        <v>565</v>
+      <c r="K24" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3201,35 +3206,35 @@
       <c r="C25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" t="s">
-        <v>245</v>
+      <c r="E25" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
-        <v>400</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="I25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J25" s="2">
         <v>39461</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K25" t="s">
-        <v>576</v>
+      <c r="K25" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3239,35 +3244,35 @@
       <c r="C26" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" t="s">
-        <v>227</v>
+      <c r="E26" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
-        <v>410</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="I26" t="s">
+        <v>408</v>
+      </c>
+      <c r="J26" s="2">
         <v>39658</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K26" t="s">
-        <v>565</v>
+      <c r="K26" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L26" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3277,35 +3282,35 @@
       <c r="C27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" t="s">
-        <v>246</v>
+      <c r="E27" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>329</v>
-      </c>
-      <c r="G27">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>327</v>
+      </c>
+      <c r="H27">
         <v>11</v>
       </c>
-      <c r="H27" t="s">
-        <v>400</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="I27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J27" s="2">
         <v>38517</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K27" t="s">
-        <v>565</v>
+      <c r="K27" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L27" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3315,35 +3320,35 @@
       <c r="C28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" t="s">
-        <v>247</v>
+      <c r="E28" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F28" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28">
         <v>12</v>
       </c>
-      <c r="H28" t="s">
-        <v>400</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="I28" t="s">
+        <v>398</v>
+      </c>
+      <c r="J28" s="2">
         <v>38467</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K28" t="s">
-        <v>565</v>
+      <c r="K28" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3353,35 +3358,35 @@
       <c r="C29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" t="s">
-        <v>248</v>
+      <c r="E29" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F29" t="s">
-        <v>326</v>
-      </c>
-      <c r="G29">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29">
         <v>12</v>
       </c>
-      <c r="H29" t="s">
-        <v>400</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="I29" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="2">
         <v>38532</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K29" t="s">
-        <v>567</v>
+      <c r="K29" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3391,35 +3396,35 @@
       <c r="C30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" t="s">
-        <v>249</v>
+      <c r="E30" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
-      </c>
-      <c r="G30">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
-        <v>400</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="I30" t="s">
+        <v>398</v>
+      </c>
+      <c r="J30" s="2">
         <v>39092</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K30" t="s">
-        <v>568</v>
+      <c r="K30" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L30" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3427,37 +3432,37 @@
         <v>895636633845</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" t="s">
-        <v>250</v>
+        <v>597</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F31" t="s">
-        <v>348</v>
-      </c>
-      <c r="G31">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
-      <c r="H31" t="s">
-        <v>411</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="I31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J31" s="2">
         <v>39117</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K31" t="s">
-        <v>580</v>
+      <c r="K31" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L31" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="M31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3467,35 +3472,35 @@
       <c r="C32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" t="s">
-        <v>251</v>
+      <c r="E32" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
-      </c>
-      <c r="G32">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32">
         <v>12</v>
       </c>
-      <c r="H32" t="s">
-        <v>400</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="I32" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" s="2">
         <v>38507</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K32" t="s">
-        <v>581</v>
+      <c r="K32" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L32" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="M32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3505,35 +3510,35 @@
       <c r="C33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D33" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" t="s">
-        <v>252</v>
+      <c r="E33" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F33" t="s">
-        <v>333</v>
-      </c>
-      <c r="G33">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33">
         <v>12</v>
       </c>
-      <c r="H33" t="s">
-        <v>412</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="I33" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="2">
         <v>38394</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K33" t="s">
-        <v>569</v>
+      <c r="K33" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L33" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3543,35 +3548,35 @@
       <c r="C34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" t="s">
-        <v>253</v>
+      <c r="E34" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34">
         <v>11</v>
       </c>
-      <c r="H34" t="s">
-        <v>413</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="I34" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" s="2">
         <v>38718</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K34" t="s">
-        <v>576</v>
+      <c r="K34" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L34" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3581,35 +3586,35 @@
       <c r="C35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" t="s">
-        <v>254</v>
+      <c r="E35" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F35" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="H35" t="s">
-        <v>414</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="I35" t="s">
+        <v>412</v>
+      </c>
+      <c r="J35" s="2">
         <v>39136</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K35" t="s">
-        <v>576</v>
+      <c r="K35" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L35" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3617,37 +3622,37 @@
         <v>81280068780</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" t="s">
-        <v>255</v>
+        <v>598</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F36" t="s">
-        <v>351</v>
-      </c>
-      <c r="G36">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>349</v>
+      </c>
+      <c r="H36">
         <v>9</v>
       </c>
-      <c r="H36" t="s">
-        <v>400</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="I36" t="s">
+        <v>398</v>
+      </c>
+      <c r="J36" s="2">
         <v>39678</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K36" t="s">
-        <v>582</v>
+      <c r="K36" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="M36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3657,35 +3662,35 @@
       <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" t="s">
-        <v>243</v>
+      <c r="E37" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
-      </c>
-      <c r="G37">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>350</v>
+      </c>
+      <c r="H37">
         <v>12</v>
       </c>
-      <c r="H37" t="s">
-        <v>400</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="I37" t="s">
+        <v>398</v>
+      </c>
+      <c r="J37" s="2">
         <v>38490</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K37" t="s">
-        <v>583</v>
+      <c r="K37" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="M37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3695,35 +3700,35 @@
       <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" t="s">
-        <v>256</v>
+      <c r="E38" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
-      </c>
-      <c r="G38">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38">
         <v>12</v>
       </c>
-      <c r="H38" t="s">
-        <v>400</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="I38" t="s">
+        <v>398</v>
+      </c>
+      <c r="J38" s="2">
         <v>37916</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K38" t="s">
-        <v>584</v>
+      <c r="K38" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="M38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3733,35 +3738,35 @@
       <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D39" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" t="s">
-        <v>244</v>
+      <c r="E39" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
-      </c>
-      <c r="G39">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H39">
         <v>9</v>
       </c>
-      <c r="H39" t="s">
-        <v>415</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="I39" t="s">
+        <v>413</v>
+      </c>
+      <c r="J39" s="2">
         <v>39802</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K39" t="s">
-        <v>567</v>
+      <c r="K39" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3771,35 +3776,35 @@
       <c r="C40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" t="s">
-        <v>257</v>
+      <c r="E40" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
-      </c>
-      <c r="G40">
+        <v>255</v>
+      </c>
+      <c r="G40" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="H40" t="s">
-        <v>400</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="I40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J40" s="2">
         <v>39760</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K40" t="s">
-        <v>576</v>
+      <c r="K40" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3809,35 +3814,35 @@
       <c r="C41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D41" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" t="s">
-        <v>258</v>
+      <c r="E41" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
-      </c>
-      <c r="G41">
+        <v>256</v>
+      </c>
+      <c r="G41" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41">
         <v>8</v>
       </c>
-      <c r="H41" t="s">
-        <v>416</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="I41" t="s">
+        <v>414</v>
+      </c>
+      <c r="J41" s="2">
         <v>39966</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K41" t="s">
-        <v>576</v>
+      <c r="K41" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3845,37 +3850,37 @@
         <v>81513080458</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D42" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" t="s">
-        <v>259</v>
+        <v>599</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
-      </c>
-      <c r="G42">
+        <v>257</v>
+      </c>
+      <c r="G42" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42">
         <v>8</v>
       </c>
-      <c r="H42" t="s">
-        <v>400</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="I42" t="s">
+        <v>398</v>
+      </c>
+      <c r="J42" s="2">
         <v>39599</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K42" t="s">
-        <v>573</v>
+      <c r="K42" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3883,37 +3888,37 @@
         <v>81911911275</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D43" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" t="s">
-        <v>234</v>
+        <v>600</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
-      </c>
-      <c r="G43">
+        <v>232</v>
+      </c>
+      <c r="G43" t="s">
+        <v>354</v>
+      </c>
+      <c r="H43">
         <v>12</v>
       </c>
-      <c r="H43" t="s">
-        <v>413</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="I43" t="s">
+        <v>411</v>
+      </c>
+      <c r="J43" s="2">
         <v>38585</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K43" t="s">
-        <v>581</v>
+      <c r="K43" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L43" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="M43" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3921,37 +3926,37 @@
         <v>87773582890</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D44" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" t="s">
-        <v>260</v>
+        <v>601</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
-      </c>
-      <c r="G44">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
+        <v>355</v>
+      </c>
+      <c r="H44">
         <v>9</v>
       </c>
-      <c r="H44" t="s">
-        <v>400</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="I44" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" s="2">
         <v>39397</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K44" t="s">
-        <v>565</v>
+      <c r="K44" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L44" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3961,35 +3966,35 @@
       <c r="C45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" t="s">
-        <v>261</v>
+      <c r="E45" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
-      </c>
-      <c r="G45">
+        <v>259</v>
+      </c>
+      <c r="G45" t="s">
+        <v>356</v>
+      </c>
+      <c r="H45">
         <v>10</v>
       </c>
-      <c r="H45" t="s">
-        <v>400</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" s="2">
         <v>39201</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K45" t="s">
-        <v>581</v>
+      <c r="K45" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L45" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="M45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3997,37 +4002,37 @@
         <v>89636314450</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>262</v>
+        <v>602</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
-      </c>
-      <c r="G46">
+        <v>260</v>
+      </c>
+      <c r="G46" t="s">
+        <v>357</v>
+      </c>
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="H46" t="s">
-        <v>400</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" s="2">
         <v>40096</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K46" t="s">
-        <v>565</v>
+      <c r="K46" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L46" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M46" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4037,35 +4042,35 @@
       <c r="C47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" t="s">
-        <v>263</v>
+      <c r="E47" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
-      </c>
-      <c r="G47">
+        <v>261</v>
+      </c>
+      <c r="G47" t="s">
+        <v>355</v>
+      </c>
+      <c r="H47">
         <v>9</v>
       </c>
-      <c r="H47" t="s">
-        <v>407</v>
-      </c>
-      <c r="I47" s="2">
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" s="2">
         <v>39668</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K47" t="s">
-        <v>565</v>
+      <c r="K47" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L47" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M47" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4073,37 +4078,37 @@
         <v>81911911265</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" t="s">
-        <v>234</v>
+        <v>603</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48">
+        <v>232</v>
+      </c>
+      <c r="G48" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48">
         <v>10</v>
       </c>
-      <c r="H48" t="s">
-        <v>413</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="I48" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" s="2">
         <v>39157</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K48" t="s">
-        <v>581</v>
+      <c r="K48" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L48" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="M48" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4113,35 +4118,35 @@
       <c r="C49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D49" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" t="s">
-        <v>264</v>
+      <c r="E49" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
-      </c>
-      <c r="G49">
+        <v>262</v>
+      </c>
+      <c r="G49" t="s">
+        <v>359</v>
+      </c>
+      <c r="H49">
         <v>12</v>
       </c>
-      <c r="H49" t="s">
-        <v>400</v>
-      </c>
-      <c r="I49" s="2">
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" s="2">
         <v>38515</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K49" t="s">
-        <v>573</v>
+      <c r="K49" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L49" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4151,35 +4156,35 @@
       <c r="C50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>244</v>
+      <c r="E50" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
-      </c>
-      <c r="G50">
+        <v>242</v>
+      </c>
+      <c r="G50" t="s">
+        <v>360</v>
+      </c>
+      <c r="H50">
         <v>7</v>
       </c>
-      <c r="H50" t="s">
-        <v>401</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" s="2">
         <v>44782</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K50" t="s">
-        <v>567</v>
+      <c r="K50" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L50" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4189,35 +4194,35 @@
       <c r="C51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" t="s">
-        <v>265</v>
+      <c r="E51" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51">
+        <v>263</v>
+      </c>
+      <c r="G51" t="s">
+        <v>361</v>
+      </c>
+      <c r="H51">
         <v>12</v>
       </c>
-      <c r="H51" t="s">
-        <v>400</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="I51" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" s="2">
         <v>38199</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K51" t="s">
-        <v>585</v>
+      <c r="K51" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L51" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="M51" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4225,37 +4230,37 @@
         <v>81210499597</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" t="s">
-        <v>250</v>
+        <v>604</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52">
+        <v>248</v>
+      </c>
+      <c r="G52" t="s">
+        <v>324</v>
+      </c>
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="H52" t="s">
-        <v>400</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="I52" t="s">
+        <v>398</v>
+      </c>
+      <c r="J52" s="2">
         <v>39250</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K52" t="s">
-        <v>565</v>
+      <c r="K52" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L52" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M52" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4265,35 +4270,35 @@
       <c r="C53" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D53" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" t="s">
-        <v>266</v>
+      <c r="E53" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53">
+        <v>264</v>
+      </c>
+      <c r="G53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53">
         <v>9</v>
       </c>
-      <c r="H53" t="s">
-        <v>400</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="I53" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" s="2">
         <v>39513</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K53" t="s">
-        <v>565</v>
+      <c r="K53" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L53" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4301,37 +4306,37 @@
         <v>81183844069</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" t="s">
-        <v>267</v>
+        <v>605</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
-      </c>
-      <c r="G54">
+        <v>265</v>
+      </c>
+      <c r="G54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H54">
         <v>8</v>
       </c>
-      <c r="H54" t="s">
-        <v>417</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="I54" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="2">
         <v>39749</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K54" t="s">
-        <v>586</v>
+      <c r="K54" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L54" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="M54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4339,37 +4344,37 @@
         <v>81281630278</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" t="s">
-        <v>268</v>
+        <v>606</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F55" t="s">
-        <v>364</v>
-      </c>
-      <c r="G55">
+        <v>266</v>
+      </c>
+      <c r="G55" t="s">
+        <v>362</v>
+      </c>
+      <c r="H55">
         <v>11</v>
       </c>
-      <c r="H55" t="s">
-        <v>400</v>
-      </c>
-      <c r="I55" s="2">
+      <c r="I55" t="s">
+        <v>398</v>
+      </c>
+      <c r="J55" s="2">
         <v>39016</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K55" t="s">
-        <v>587</v>
+      <c r="K55" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="M55" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4377,37 +4382,37 @@
         <v>8119426189</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D56" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" t="s">
-        <v>269</v>
+        <v>607</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F56" t="s">
-        <v>365</v>
-      </c>
-      <c r="G56">
+        <v>267</v>
+      </c>
+      <c r="G56" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56">
         <v>8</v>
       </c>
-      <c r="H56" t="s">
-        <v>400</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="I56" t="s">
+        <v>398</v>
+      </c>
+      <c r="J56" s="2">
         <v>39911</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K56" t="s">
-        <v>585</v>
+      <c r="K56" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L56" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="M56" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -4417,35 +4422,35 @@
       <c r="C57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D57" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" t="s">
-        <v>270</v>
+      <c r="E57" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
-      </c>
-      <c r="G57">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="H57" t="s">
-        <v>418</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" s="2">
         <v>39101</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K57" t="s">
-        <v>567</v>
+      <c r="K57" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M57" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4455,35 +4460,35 @@
       <c r="C58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D58" t="s">
-        <v>221</v>
-      </c>
-      <c r="E58" t="s">
-        <v>271</v>
+      <c r="E58" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F58" t="s">
-        <v>366</v>
-      </c>
-      <c r="G58">
+        <v>269</v>
+      </c>
+      <c r="G58" t="s">
+        <v>364</v>
+      </c>
+      <c r="H58">
         <v>10</v>
       </c>
-      <c r="H58" t="s">
-        <v>419</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" s="2">
         <v>39252</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K58" t="s">
-        <v>568</v>
+      <c r="K58" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -4493,35 +4498,35 @@
       <c r="C59" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" t="s">
-        <v>272</v>
+      <c r="E59" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F59" t="s">
-        <v>367</v>
-      </c>
-      <c r="G59">
+        <v>270</v>
+      </c>
+      <c r="G59" t="s">
+        <v>365</v>
+      </c>
+      <c r="H59">
         <v>8</v>
       </c>
-      <c r="H59" t="s">
-        <v>400</v>
-      </c>
-      <c r="I59" s="2">
+      <c r="I59" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" s="2">
         <v>40206</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K59" t="s">
-        <v>567</v>
+      <c r="K59" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -4531,35 +4536,35 @@
       <c r="C60" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" t="s">
-        <v>273</v>
+      <c r="E60" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
-      </c>
-      <c r="G60">
+        <v>271</v>
+      </c>
+      <c r="G60" t="s">
+        <v>331</v>
+      </c>
+      <c r="H60">
         <v>11</v>
       </c>
-      <c r="H60" t="s">
-        <v>420</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="I60" t="s">
+        <v>418</v>
+      </c>
+      <c r="J60" s="2">
         <v>38915</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K60" t="s">
-        <v>565</v>
+      <c r="K60" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -4569,35 +4574,35 @@
       <c r="C61" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D61" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" t="s">
-        <v>274</v>
+      <c r="E61" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F61" t="s">
-        <v>368</v>
-      </c>
-      <c r="G61">
+        <v>272</v>
+      </c>
+      <c r="G61" t="s">
+        <v>366</v>
+      </c>
+      <c r="H61">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
-        <v>400</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" s="2">
         <v>39343</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K61" t="s">
-        <v>566</v>
+      <c r="K61" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="M61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4607,35 +4612,35 @@
       <c r="C62" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" t="s">
-        <v>275</v>
+      <c r="E62" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
-      </c>
-      <c r="G62">
+        <v>273</v>
+      </c>
+      <c r="G62" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62">
         <v>12</v>
       </c>
-      <c r="H62" t="s">
-        <v>400</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" s="2">
         <v>38511</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K62" t="s">
-        <v>588</v>
+      <c r="K62" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L62" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="M62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4645,35 +4650,35 @@
       <c r="C63" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D63" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" t="s">
-        <v>276</v>
+      <c r="E63" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F63" t="s">
-        <v>370</v>
-      </c>
-      <c r="G63">
+        <v>274</v>
+      </c>
+      <c r="G63" t="s">
+        <v>368</v>
+      </c>
+      <c r="H63">
         <v>10</v>
       </c>
-      <c r="H63" t="s">
-        <v>400</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="I63" t="s">
+        <v>398</v>
+      </c>
+      <c r="J63" s="2">
         <v>39078</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K63" t="s">
-        <v>589</v>
+      <c r="K63" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L63" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="M63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -4683,35 +4688,35 @@
       <c r="C64" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D64" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" t="s">
-        <v>277</v>
+      <c r="E64" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F64" t="s">
-        <v>371</v>
-      </c>
-      <c r="G64">
+        <v>275</v>
+      </c>
+      <c r="G64" t="s">
+        <v>369</v>
+      </c>
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="H64" t="s">
-        <v>421</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="I64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" s="2">
         <v>39036</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K64" t="s">
-        <v>576</v>
+      <c r="K64" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L64" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4721,35 +4726,35 @@
       <c r="C65" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D65" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" t="s">
-        <v>278</v>
+      <c r="E65" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F65" t="s">
-        <v>372</v>
-      </c>
-      <c r="G65">
+        <v>276</v>
+      </c>
+      <c r="G65" t="s">
+        <v>370</v>
+      </c>
+      <c r="H65">
         <v>9</v>
       </c>
-      <c r="H65" t="s">
-        <v>422</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="I65" t="s">
+        <v>420</v>
+      </c>
+      <c r="J65" s="2">
         <v>39646</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K65" t="s">
-        <v>569</v>
+      <c r="K65" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M65" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -4759,35 +4764,35 @@
       <c r="C66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D66" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" t="s">
-        <v>279</v>
+      <c r="E66" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
-      </c>
-      <c r="G66">
+        <v>277</v>
+      </c>
+      <c r="G66" t="s">
+        <v>339</v>
+      </c>
+      <c r="H66">
         <v>7</v>
       </c>
-      <c r="H66" t="s">
-        <v>400</v>
-      </c>
-      <c r="I66" s="2">
+      <c r="I66" t="s">
+        <v>398</v>
+      </c>
+      <c r="J66" s="2">
         <v>40165</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K66" t="s">
-        <v>576</v>
+      <c r="K66" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -4797,35 +4802,35 @@
       <c r="C67" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D67" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" t="s">
-        <v>280</v>
+      <c r="E67" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
-      </c>
-      <c r="G67">
+        <v>278</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67">
         <v>8</v>
       </c>
-      <c r="H67" t="s">
-        <v>400</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="I67" t="s">
+        <v>398</v>
+      </c>
+      <c r="J67" s="2">
         <v>39926</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K67" t="s">
-        <v>572</v>
+      <c r="K67" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L67" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -4835,35 +4840,35 @@
       <c r="C68" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" t="s">
-        <v>281</v>
+      <c r="E68" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
-      </c>
-      <c r="G68">
+        <v>279</v>
+      </c>
+      <c r="G68" t="s">
+        <v>371</v>
+      </c>
+      <c r="H68">
         <v>12</v>
       </c>
-      <c r="H68" t="s">
-        <v>423</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" s="2">
         <v>38054</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K68" t="s">
-        <v>568</v>
+      <c r="K68" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L68" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -4873,35 +4878,35 @@
       <c r="C69" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D69" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" t="s">
-        <v>282</v>
+      <c r="E69" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
-      </c>
-      <c r="G69">
+        <v>280</v>
+      </c>
+      <c r="G69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69">
         <v>10</v>
       </c>
-      <c r="H69" t="s">
-        <v>423</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" s="2">
         <v>38949</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K69" t="s">
-        <v>568</v>
+      <c r="K69" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L69" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -4911,35 +4916,35 @@
       <c r="C70" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" t="s">
-        <v>283</v>
+      <c r="E70" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F70" t="s">
-        <v>374</v>
-      </c>
-      <c r="G70">
+        <v>281</v>
+      </c>
+      <c r="G70" t="s">
+        <v>372</v>
+      </c>
+      <c r="H70">
         <v>8</v>
       </c>
-      <c r="H70" t="s">
-        <v>423</v>
-      </c>
-      <c r="I70" s="2">
+      <c r="I70" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70" s="2">
         <v>40060</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K70" t="s">
-        <v>572</v>
+      <c r="K70" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L70" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M70" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -4949,35 +4954,35 @@
       <c r="C71" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D71" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" t="s">
-        <v>284</v>
+      <c r="E71" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F71" t="s">
-        <v>375</v>
-      </c>
-      <c r="G71">
+        <v>282</v>
+      </c>
+      <c r="G71" t="s">
+        <v>373</v>
+      </c>
+      <c r="H71">
         <v>9</v>
       </c>
-      <c r="H71" t="s">
-        <v>400</v>
-      </c>
-      <c r="I71" s="2">
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" s="2">
         <v>39690</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K71" t="s">
-        <v>565</v>
+      <c r="K71" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L71" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M71" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -4987,35 +4992,35 @@
       <c r="C72" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D72" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" t="s">
-        <v>285</v>
+      <c r="E72" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F72" t="s">
-        <v>333</v>
-      </c>
-      <c r="G72">
+        <v>283</v>
+      </c>
+      <c r="G72" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72">
         <v>9</v>
       </c>
-      <c r="H72" t="s">
-        <v>401</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="I72" t="s">
+        <v>399</v>
+      </c>
+      <c r="J72" s="2">
         <v>44849</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K72" t="s">
-        <v>576</v>
+      <c r="K72" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L72" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5025,35 +5030,35 @@
       <c r="C73" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D73" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" t="s">
-        <v>286</v>
+      <c r="E73" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F73" t="s">
-        <v>333</v>
-      </c>
-      <c r="G73">
+        <v>284</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73">
         <v>9</v>
       </c>
-      <c r="H73" t="s">
-        <v>400</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="I73" t="s">
+        <v>398</v>
+      </c>
+      <c r="J73" s="2">
         <v>39560</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K73" t="s">
-        <v>576</v>
+      <c r="K73" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L73" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M73" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5063,35 +5068,35 @@
       <c r="C74" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D74" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" t="s">
-        <v>287</v>
+      <c r="E74" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F74" t="s">
-        <v>371</v>
-      </c>
-      <c r="G74">
+        <v>285</v>
+      </c>
+      <c r="G74" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74">
         <v>12</v>
       </c>
-      <c r="H74" t="s">
-        <v>402</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="I74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" s="2">
         <v>38298</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K74" t="s">
-        <v>567</v>
+      <c r="K74" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L74" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5101,35 +5106,35 @@
       <c r="C75" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D75" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" t="s">
-        <v>257</v>
+      <c r="E75" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
-      </c>
-      <c r="G75">
+        <v>255</v>
+      </c>
+      <c r="G75" t="s">
+        <v>331</v>
+      </c>
+      <c r="H75">
         <v>12</v>
       </c>
-      <c r="H75" t="s">
-        <v>400</v>
-      </c>
-      <c r="I75" s="2">
+      <c r="I75" t="s">
+        <v>398</v>
+      </c>
+      <c r="J75" s="2">
         <v>38550</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K75" t="s">
-        <v>579</v>
+      <c r="K75" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L75" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="M75" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -5139,35 +5144,35 @@
       <c r="C76" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D76" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" t="s">
-        <v>288</v>
+      <c r="E76" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F76" t="s">
-        <v>376</v>
-      </c>
-      <c r="G76">
+        <v>286</v>
+      </c>
+      <c r="G76" t="s">
+        <v>374</v>
+      </c>
+      <c r="H76">
         <v>9</v>
       </c>
-      <c r="H76" t="s">
-        <v>413</v>
-      </c>
-      <c r="I76" s="2">
+      <c r="I76" t="s">
+        <v>411</v>
+      </c>
+      <c r="J76" s="2">
         <v>39541</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K76" t="s">
-        <v>572</v>
+      <c r="K76" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L76" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M76" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5177,35 +5182,35 @@
       <c r="C77" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D77" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" t="s">
-        <v>289</v>
+      <c r="E77" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F77" t="s">
-        <v>377</v>
-      </c>
-      <c r="G77">
+        <v>287</v>
+      </c>
+      <c r="G77" t="s">
+        <v>375</v>
+      </c>
+      <c r="H77">
         <v>10</v>
       </c>
-      <c r="H77" t="s">
-        <v>424</v>
-      </c>
-      <c r="I77" s="2">
+      <c r="I77" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" s="2">
         <v>39159</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K77" t="s">
-        <v>565</v>
+      <c r="K77" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L77" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M77" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5215,35 +5220,35 @@
       <c r="C78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D78" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" t="s">
-        <v>277</v>
+      <c r="E78" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F78" t="s">
-        <v>333</v>
-      </c>
-      <c r="G78">
+        <v>275</v>
+      </c>
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78">
         <v>10</v>
       </c>
-      <c r="H78" t="s">
-        <v>400</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="I78" t="s">
+        <v>398</v>
+      </c>
+      <c r="J78" s="2">
         <v>39309</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K78" t="s">
-        <v>569</v>
+      <c r="K78" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L78" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5253,35 +5258,35 @@
       <c r="C79" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" t="s">
-        <v>290</v>
+      <c r="E79" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F79" t="s">
-        <v>333</v>
-      </c>
-      <c r="G79">
+        <v>288</v>
+      </c>
+      <c r="G79" t="s">
+        <v>331</v>
+      </c>
+      <c r="H79">
         <v>11</v>
       </c>
-      <c r="H79" t="s">
-        <v>425</v>
-      </c>
-      <c r="I79" s="2">
+      <c r="I79" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" s="2">
         <v>38749</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K79" t="s">
-        <v>589</v>
+      <c r="K79" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L79" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="M79" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -5289,37 +5294,37 @@
         <v>895331838593</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D80" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" t="s">
-        <v>291</v>
+        <v>608</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
-      </c>
-      <c r="G80">
+        <v>289</v>
+      </c>
+      <c r="G80" t="s">
+        <v>324</v>
+      </c>
+      <c r="H80">
         <v>9</v>
       </c>
-      <c r="H80" t="s">
-        <v>400</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="I80" t="s">
+        <v>398</v>
+      </c>
+      <c r="J80" s="2">
         <v>39432</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K80" t="s">
-        <v>568</v>
+      <c r="K80" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L80" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5327,37 +5332,37 @@
         <v>81314543001</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D81" t="s">
-        <v>222</v>
-      </c>
-      <c r="E81" t="s">
-        <v>292</v>
+        <v>609</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F81" t="s">
-        <v>350</v>
-      </c>
-      <c r="G81">
+        <v>290</v>
+      </c>
+      <c r="G81" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81">
         <v>12</v>
       </c>
-      <c r="H81" t="s">
-        <v>426</v>
-      </c>
-      <c r="I81" s="2">
+      <c r="I81" t="s">
+        <v>424</v>
+      </c>
+      <c r="J81" s="2">
         <v>38357</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K81" t="s">
-        <v>568</v>
+      <c r="K81" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L81" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5367,35 +5372,35 @@
       <c r="C82" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D82" t="s">
-        <v>222</v>
-      </c>
-      <c r="E82" t="s">
-        <v>293</v>
+      <c r="E82" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F82" t="s">
-        <v>378</v>
-      </c>
-      <c r="G82">
+        <v>291</v>
+      </c>
+      <c r="G82" t="s">
+        <v>376</v>
+      </c>
+      <c r="H82">
         <v>10</v>
       </c>
-      <c r="H82" t="s">
-        <v>400</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="I82" t="s">
+        <v>398</v>
+      </c>
+      <c r="J82" s="2">
         <v>39162</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K82" t="s">
-        <v>576</v>
+      <c r="K82" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L82" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M82" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5405,35 +5410,35 @@
       <c r="C83" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D83" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" t="s">
-        <v>294</v>
+      <c r="E83" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F83" t="s">
-        <v>333</v>
-      </c>
-      <c r="G83">
+        <v>292</v>
+      </c>
+      <c r="G83" t="s">
+        <v>331</v>
+      </c>
+      <c r="H83">
         <v>10</v>
       </c>
-      <c r="H83" t="s">
-        <v>408</v>
-      </c>
-      <c r="I83" s="2">
+      <c r="I83" t="s">
+        <v>406</v>
+      </c>
+      <c r="J83" s="2">
         <v>38962</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K83" t="s">
-        <v>576</v>
+      <c r="K83" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L83" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -5443,35 +5448,35 @@
       <c r="C84" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D84" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" t="s">
-        <v>295</v>
+      <c r="E84" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F84" t="s">
-        <v>379</v>
-      </c>
-      <c r="G84">
+        <v>293</v>
+      </c>
+      <c r="G84" t="s">
+        <v>377</v>
+      </c>
+      <c r="H84">
         <v>12</v>
       </c>
-      <c r="H84" t="s">
-        <v>400</v>
-      </c>
-      <c r="I84" s="2">
+      <c r="I84" t="s">
+        <v>398</v>
+      </c>
+      <c r="J84" s="2">
         <v>44773</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K84" t="s">
-        <v>585</v>
+      <c r="K84" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L84" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="M84" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -5481,35 +5486,35 @@
       <c r="C85" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D85" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" t="s">
-        <v>296</v>
+      <c r="E85" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
-      </c>
-      <c r="G85">
+        <v>294</v>
+      </c>
+      <c r="G85" t="s">
+        <v>328</v>
+      </c>
+      <c r="H85">
         <v>8</v>
       </c>
-      <c r="H85" t="s">
-        <v>400</v>
-      </c>
-      <c r="I85" s="2">
+      <c r="I85" t="s">
+        <v>398</v>
+      </c>
+      <c r="J85" s="2">
         <v>39996</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K85" t="s">
-        <v>569</v>
+      <c r="K85" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L85" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M85" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5517,37 +5522,37 @@
         <v>81280484790</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D86" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" t="s">
-        <v>297</v>
+        <v>610</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F86" t="s">
-        <v>333</v>
-      </c>
-      <c r="G86">
+        <v>295</v>
+      </c>
+      <c r="G86" t="s">
+        <v>331</v>
+      </c>
+      <c r="H86">
         <v>9</v>
       </c>
-      <c r="H86" t="s">
-        <v>400</v>
-      </c>
-      <c r="I86" s="2">
+      <c r="I86" t="s">
+        <v>398</v>
+      </c>
+      <c r="J86" s="2">
         <v>39535</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K86" t="s">
-        <v>565</v>
+      <c r="K86" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L86" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -5557,35 +5562,35 @@
       <c r="C87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D87" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" t="s">
-        <v>243</v>
+      <c r="E87" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F87" t="s">
-        <v>380</v>
-      </c>
-      <c r="G87">
+        <v>241</v>
+      </c>
+      <c r="G87" t="s">
+        <v>378</v>
+      </c>
+      <c r="H87">
         <v>12</v>
       </c>
-      <c r="H87" t="s">
-        <v>427</v>
-      </c>
-      <c r="I87" s="2">
+      <c r="I87" t="s">
+        <v>425</v>
+      </c>
+      <c r="J87" s="2">
         <v>38684</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K87" t="s">
-        <v>590</v>
+      <c r="K87" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L87" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="M87" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -5595,35 +5600,35 @@
       <c r="C88" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D88" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" t="s">
-        <v>298</v>
+      <c r="E88" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F88" t="s">
-        <v>373</v>
-      </c>
-      <c r="G88">
+        <v>296</v>
+      </c>
+      <c r="G88" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88">
         <v>12</v>
       </c>
-      <c r="H88" t="s">
-        <v>428</v>
-      </c>
-      <c r="I88" s="2">
+      <c r="I88" t="s">
+        <v>426</v>
+      </c>
+      <c r="J88" s="2">
         <v>38169</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K88" t="s">
-        <v>571</v>
+      <c r="K88" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L88" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M88" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -5633,35 +5638,35 @@
       <c r="C89" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" t="s">
-        <v>299</v>
+      <c r="E89" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F89" t="s">
-        <v>381</v>
-      </c>
-      <c r="G89">
+        <v>297</v>
+      </c>
+      <c r="G89" t="s">
+        <v>379</v>
+      </c>
+      <c r="H89">
         <v>10</v>
       </c>
-      <c r="H89" t="s">
-        <v>400</v>
-      </c>
-      <c r="I89" s="2">
+      <c r="I89" t="s">
+        <v>398</v>
+      </c>
+      <c r="J89" s="2">
         <v>39096</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K89" t="s">
-        <v>573</v>
+      <c r="K89" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L89" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M89" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -5671,35 +5676,35 @@
       <c r="C90" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" t="s">
-        <v>300</v>
+      <c r="E90" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F90" t="s">
-        <v>382</v>
-      </c>
-      <c r="G90">
+        <v>298</v>
+      </c>
+      <c r="G90" t="s">
+        <v>380</v>
+      </c>
+      <c r="H90">
         <v>10</v>
       </c>
-      <c r="H90" t="s">
-        <v>429</v>
-      </c>
-      <c r="I90" s="2">
+      <c r="I90" t="s">
+        <v>427</v>
+      </c>
+      <c r="J90" s="2">
         <v>39443</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K90" t="s">
-        <v>589</v>
+      <c r="K90" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L90" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="M90" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -5707,37 +5712,37 @@
         <v>81366778822</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D91" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" t="s">
-        <v>301</v>
+        <v>611</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F91" t="s">
-        <v>383</v>
-      </c>
-      <c r="G91">
+        <v>299</v>
+      </c>
+      <c r="G91" t="s">
+        <v>381</v>
+      </c>
+      <c r="H91">
         <v>10</v>
       </c>
-      <c r="H91" t="s">
-        <v>400</v>
-      </c>
-      <c r="I91" s="2">
+      <c r="I91" t="s">
+        <v>398</v>
+      </c>
+      <c r="J91" s="2">
         <v>39049</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K91" t="s">
-        <v>577</v>
+      <c r="K91" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L91" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="M91" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -5747,35 +5752,35 @@
       <c r="C92" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D92" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" t="s">
-        <v>302</v>
+      <c r="E92" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F92" t="s">
-        <v>384</v>
-      </c>
-      <c r="G92">
+        <v>300</v>
+      </c>
+      <c r="G92" t="s">
+        <v>382</v>
+      </c>
+      <c r="H92">
         <v>10</v>
       </c>
-      <c r="H92" t="s">
-        <v>400</v>
-      </c>
-      <c r="I92" s="2">
+      <c r="I92" t="s">
+        <v>398</v>
+      </c>
+      <c r="J92" s="2">
         <v>39033</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K92" t="s">
-        <v>568</v>
+      <c r="K92" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L92" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M92" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5783,37 +5788,37 @@
         <v>6061720</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D93" t="s">
-        <v>222</v>
-      </c>
-      <c r="E93" t="s">
-        <v>303</v>
+        <v>612</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F93" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93">
+        <v>301</v>
+      </c>
+      <c r="G93" t="s">
+        <v>327</v>
+      </c>
+      <c r="H93">
         <v>8</v>
       </c>
-      <c r="H93" t="s">
-        <v>430</v>
-      </c>
-      <c r="I93" s="2">
+      <c r="I93" t="s">
+        <v>428</v>
+      </c>
+      <c r="J93" s="2">
         <v>40144</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K93" t="s">
-        <v>568</v>
+      <c r="K93" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L93" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -5823,35 +5828,35 @@
       <c r="C94" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" t="s">
-        <v>304</v>
+      <c r="E94" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F94" t="s">
-        <v>385</v>
-      </c>
-      <c r="G94">
+        <v>302</v>
+      </c>
+      <c r="G94" t="s">
+        <v>383</v>
+      </c>
+      <c r="H94">
         <v>12</v>
       </c>
-      <c r="H94" t="s">
-        <v>400</v>
-      </c>
-      <c r="I94" s="2">
+      <c r="I94" t="s">
+        <v>398</v>
+      </c>
+      <c r="J94" s="2">
         <v>38652</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K94" t="s">
-        <v>572</v>
+      <c r="K94" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L94" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M94" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5859,37 +5864,37 @@
         <v>82123730633</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D95" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" t="s">
-        <v>558</v>
+        <v>613</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F95" t="s">
-        <v>386</v>
-      </c>
-      <c r="G95">
+        <v>556</v>
+      </c>
+      <c r="G95" t="s">
+        <v>384</v>
+      </c>
+      <c r="H95">
         <v>10</v>
       </c>
-      <c r="H95" t="s">
-        <v>400</v>
-      </c>
-      <c r="I95" s="2">
+      <c r="I95" t="s">
+        <v>398</v>
+      </c>
+      <c r="J95" s="2">
         <v>39059</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K95" t="s">
-        <v>571</v>
+      <c r="K95" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L95" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M95" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -5899,35 +5904,35 @@
       <c r="C96" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" t="s">
-        <v>305</v>
+      <c r="E96" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F96" t="s">
-        <v>387</v>
-      </c>
-      <c r="G96">
+        <v>303</v>
+      </c>
+      <c r="G96" t="s">
+        <v>385</v>
+      </c>
+      <c r="H96">
         <v>8</v>
       </c>
-      <c r="H96" t="s">
-        <v>400</v>
-      </c>
-      <c r="I96" s="2">
+      <c r="I96" t="s">
+        <v>398</v>
+      </c>
+      <c r="J96" s="2">
         <v>40009</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K96" t="s">
-        <v>588</v>
+      <c r="K96" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L96" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="M96" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5935,37 +5940,37 @@
         <v>81287349615</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D97" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" t="s">
-        <v>306</v>
+        <v>614</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F97" t="s">
-        <v>388</v>
-      </c>
-      <c r="G97">
+        <v>304</v>
+      </c>
+      <c r="G97" t="s">
+        <v>386</v>
+      </c>
+      <c r="H97">
         <v>10</v>
       </c>
-      <c r="H97" t="s">
-        <v>431</v>
-      </c>
-      <c r="I97" s="2">
+      <c r="I97" t="s">
+        <v>429</v>
+      </c>
+      <c r="J97" s="2">
         <v>39108</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K97" t="s">
-        <v>567</v>
+      <c r="K97" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L97" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5975,35 +5980,35 @@
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D98" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" t="s">
-        <v>307</v>
+      <c r="E98" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F98" t="s">
-        <v>389</v>
-      </c>
-      <c r="G98">
+        <v>305</v>
+      </c>
+      <c r="G98" t="s">
+        <v>387</v>
+      </c>
+      <c r="H98">
         <v>9</v>
       </c>
-      <c r="H98" t="s">
-        <v>400</v>
-      </c>
-      <c r="I98" s="2">
+      <c r="I98" t="s">
+        <v>398</v>
+      </c>
+      <c r="J98" s="2">
         <v>39685</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K98" t="s">
-        <v>576</v>
+      <c r="K98" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L98" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M98" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -6013,35 +6018,35 @@
       <c r="C99" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D99" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" t="s">
-        <v>308</v>
+      <c r="E99" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F99" t="s">
-        <v>390</v>
-      </c>
-      <c r="G99">
+        <v>306</v>
+      </c>
+      <c r="G99" t="s">
+        <v>388</v>
+      </c>
+      <c r="H99">
         <v>12</v>
       </c>
-      <c r="H99" t="s">
-        <v>432</v>
-      </c>
-      <c r="I99" s="2">
+      <c r="I99" t="s">
+        <v>430</v>
+      </c>
+      <c r="J99" s="2">
         <v>38031</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="K99" t="s">
-        <v>591</v>
+      <c r="K99" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L99" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="M99" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -6051,35 +6056,35 @@
       <c r="C100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D100" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" t="s">
-        <v>309</v>
+      <c r="E100" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F100" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100">
+        <v>307</v>
+      </c>
+      <c r="G100" t="s">
+        <v>389</v>
+      </c>
+      <c r="H100">
         <v>8</v>
       </c>
-      <c r="H100" t="s">
-        <v>433</v>
-      </c>
-      <c r="I100" s="2">
+      <c r="I100" t="s">
+        <v>431</v>
+      </c>
+      <c r="J100" s="2">
         <v>39996</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K100" t="s">
-        <v>573</v>
+      <c r="K100" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L100" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M100" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -6089,35 +6094,35 @@
       <c r="C101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D101" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" t="s">
-        <v>310</v>
+      <c r="E101" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F101" t="s">
-        <v>341</v>
-      </c>
-      <c r="G101">
+        <v>308</v>
+      </c>
+      <c r="G101" t="s">
+        <v>339</v>
+      </c>
+      <c r="H101">
         <v>8</v>
       </c>
-      <c r="H101" t="s">
-        <v>434</v>
-      </c>
-      <c r="I101" s="2">
+      <c r="I101" t="s">
+        <v>432</v>
+      </c>
+      <c r="J101" s="2">
         <v>40033</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K101" t="s">
-        <v>571</v>
+      <c r="K101" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L101" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M101" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -6127,35 +6132,35 @@
       <c r="C102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D102" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" t="s">
-        <v>311</v>
+      <c r="E102" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
-      </c>
-      <c r="G102">
+        <v>309</v>
+      </c>
+      <c r="G102" t="s">
+        <v>331</v>
+      </c>
+      <c r="H102">
         <v>9</v>
       </c>
-      <c r="H102" t="s">
-        <v>400</v>
-      </c>
-      <c r="I102" s="2">
+      <c r="I102" t="s">
+        <v>398</v>
+      </c>
+      <c r="J102" s="2">
         <v>39391</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K102" t="s">
-        <v>577</v>
+      <c r="K102" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L102" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="M102" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6165,35 +6170,35 @@
       <c r="C103" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D103" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" t="s">
-        <v>312</v>
+      <c r="E103" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F103" t="s">
-        <v>326</v>
-      </c>
-      <c r="G103">
+        <v>310</v>
+      </c>
+      <c r="G103" t="s">
+        <v>324</v>
+      </c>
+      <c r="H103">
         <v>10</v>
       </c>
-      <c r="H103" t="s">
-        <v>400</v>
-      </c>
-      <c r="I103" s="2">
+      <c r="I103" t="s">
+        <v>398</v>
+      </c>
+      <c r="J103" s="2">
         <v>39078</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K103" t="s">
-        <v>573</v>
+      <c r="K103" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L103" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M103" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -6203,35 +6208,35 @@
       <c r="C104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D104" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" t="s">
-        <v>234</v>
+      <c r="E104" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
-      </c>
-      <c r="G104">
+        <v>232</v>
+      </c>
+      <c r="G104" t="s">
+        <v>324</v>
+      </c>
+      <c r="H104">
         <v>10</v>
       </c>
-      <c r="H104" t="s">
-        <v>435</v>
-      </c>
-      <c r="I104" s="2">
+      <c r="I104" t="s">
+        <v>433</v>
+      </c>
+      <c r="J104" s="2">
         <v>39338</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K104" t="s">
-        <v>576</v>
+      <c r="K104" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L104" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M104" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -6241,35 +6246,35 @@
       <c r="C105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D105" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" t="s">
-        <v>313</v>
+      <c r="E105" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F105" t="s">
-        <v>392</v>
-      </c>
-      <c r="G105">
+        <v>311</v>
+      </c>
+      <c r="G105" t="s">
+        <v>390</v>
+      </c>
+      <c r="H105">
         <v>10</v>
       </c>
-      <c r="H105" t="s">
-        <v>400</v>
-      </c>
-      <c r="I105" s="2">
+      <c r="I105" t="s">
+        <v>398</v>
+      </c>
+      <c r="J105" s="2">
         <v>39118</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K105" t="s">
-        <v>565</v>
+      <c r="K105" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L105" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M105" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -6279,35 +6284,35 @@
       <c r="C106" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D106" t="s">
-        <v>221</v>
-      </c>
-      <c r="E106" t="s">
-        <v>227</v>
+      <c r="E106" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F106" t="s">
-        <v>393</v>
-      </c>
-      <c r="G106">
+        <v>225</v>
+      </c>
+      <c r="G106" t="s">
+        <v>391</v>
+      </c>
+      <c r="H106">
         <v>11</v>
       </c>
-      <c r="H106" t="s">
-        <v>400</v>
-      </c>
-      <c r="I106" s="2">
+      <c r="I106" t="s">
+        <v>398</v>
+      </c>
+      <c r="J106" s="2">
         <v>38984</v>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K106" t="s">
-        <v>571</v>
+      <c r="K106" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L106" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M106" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -6317,35 +6322,35 @@
       <c r="C107" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D107" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" t="s">
-        <v>314</v>
+      <c r="E107" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F107" t="s">
-        <v>333</v>
-      </c>
-      <c r="G107">
+        <v>312</v>
+      </c>
+      <c r="G107" t="s">
+        <v>331</v>
+      </c>
+      <c r="H107">
         <v>12</v>
       </c>
-      <c r="H107" t="s">
-        <v>401</v>
-      </c>
-      <c r="I107" s="2">
+      <c r="I107" t="s">
+        <v>399</v>
+      </c>
+      <c r="J107" s="2">
         <v>38161</v>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K107" t="s">
-        <v>576</v>
+      <c r="K107" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L107" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="M107" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -6355,35 +6360,35 @@
       <c r="C108" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D108" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" t="s">
-        <v>315</v>
+      <c r="E108" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F108" t="s">
-        <v>333</v>
-      </c>
-      <c r="G108">
+        <v>313</v>
+      </c>
+      <c r="G108" t="s">
+        <v>331</v>
+      </c>
+      <c r="H108">
         <v>12</v>
       </c>
-      <c r="H108" t="s">
-        <v>436</v>
-      </c>
-      <c r="I108" s="2">
+      <c r="I108" t="s">
+        <v>434</v>
+      </c>
+      <c r="J108" s="2">
         <v>44766</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K108" t="s">
-        <v>571</v>
+      <c r="K108" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L108" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M108" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -6393,35 +6398,35 @@
       <c r="C109" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
-        <v>222</v>
-      </c>
-      <c r="E109" t="s">
-        <v>316</v>
+      <c r="E109" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F109" t="s">
-        <v>333</v>
-      </c>
-      <c r="G109">
+        <v>314</v>
+      </c>
+      <c r="G109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H109">
         <v>12</v>
       </c>
-      <c r="H109" t="s">
-        <v>400</v>
-      </c>
-      <c r="I109" s="2">
+      <c r="I109" t="s">
+        <v>398</v>
+      </c>
+      <c r="J109" s="2">
         <v>38201</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K109" t="s">
-        <v>571</v>
+      <c r="K109" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L109" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -6431,35 +6436,35 @@
       <c r="C110" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D110" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" t="s">
-        <v>317</v>
+      <c r="E110" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F110" t="s">
-        <v>394</v>
-      </c>
-      <c r="G110">
+        <v>315</v>
+      </c>
+      <c r="G110" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110">
         <v>8</v>
       </c>
-      <c r="H110" t="s">
-        <v>437</v>
-      </c>
-      <c r="I110" s="2">
+      <c r="I110" t="s">
+        <v>435</v>
+      </c>
+      <c r="J110" s="2">
         <v>44761</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K110" t="s">
-        <v>568</v>
+      <c r="K110" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L110" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M110" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -6469,35 +6474,35 @@
       <c r="C111" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D111" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" t="s">
-        <v>318</v>
+      <c r="E111" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F111" t="s">
-        <v>329</v>
-      </c>
-      <c r="G111">
+        <v>316</v>
+      </c>
+      <c r="G111" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111">
         <v>11</v>
       </c>
-      <c r="H111" t="s">
-        <v>438</v>
-      </c>
-      <c r="I111" s="2">
+      <c r="I111" t="s">
+        <v>436</v>
+      </c>
+      <c r="J111" s="2">
         <v>38715</v>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K111" t="s">
-        <v>568</v>
+      <c r="K111" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L111" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M111" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6507,35 +6512,35 @@
       <c r="C112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D112" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" t="s">
-        <v>319</v>
+      <c r="E112" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F112" t="s">
-        <v>347</v>
-      </c>
-      <c r="G112">
+        <v>317</v>
+      </c>
+      <c r="G112" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112">
         <v>12</v>
       </c>
-      <c r="H112" t="s">
-        <v>400</v>
-      </c>
-      <c r="I112" s="2">
+      <c r="I112" t="s">
+        <v>398</v>
+      </c>
+      <c r="J112" s="2">
         <v>38653</v>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K112" t="s">
-        <v>592</v>
+      <c r="K112" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L112" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="M112" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -6545,35 +6550,35 @@
       <c r="C113" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D113" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113" t="s">
-        <v>320</v>
+      <c r="E113" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F113" t="s">
-        <v>333</v>
-      </c>
-      <c r="G113">
+        <v>318</v>
+      </c>
+      <c r="G113" t="s">
+        <v>331</v>
+      </c>
+      <c r="H113">
         <v>10</v>
       </c>
-      <c r="H113" t="s">
-        <v>439</v>
-      </c>
-      <c r="I113" s="2">
+      <c r="I113" t="s">
+        <v>437</v>
+      </c>
+      <c r="J113" s="2">
         <v>39144</v>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K113" t="s">
-        <v>579</v>
+      <c r="K113" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L113" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="M113" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -6583,35 +6588,35 @@
       <c r="C114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D114" t="s">
-        <v>222</v>
-      </c>
-      <c r="E114" t="s">
-        <v>321</v>
+      <c r="E114" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F114" t="s">
-        <v>329</v>
-      </c>
-      <c r="G114">
+        <v>319</v>
+      </c>
+      <c r="G114" t="s">
+        <v>327</v>
+      </c>
+      <c r="H114">
         <v>12</v>
       </c>
-      <c r="H114" t="s">
-        <v>440</v>
-      </c>
-      <c r="I114" s="2">
+      <c r="I114" t="s">
+        <v>438</v>
+      </c>
+      <c r="J114" s="2">
         <v>38591</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K114" t="s">
-        <v>568</v>
+      <c r="K114" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L114" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6621,35 +6626,35 @@
       <c r="C115" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D115" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" t="s">
-        <v>322</v>
+      <c r="E115" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F115" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115">
+        <v>320</v>
+      </c>
+      <c r="G115" t="s">
+        <v>393</v>
+      </c>
+      <c r="H115">
         <v>10</v>
       </c>
-      <c r="H115" t="s">
-        <v>400</v>
-      </c>
-      <c r="I115" s="2">
+      <c r="I115" t="s">
+        <v>398</v>
+      </c>
+      <c r="J115" s="2">
         <v>39396</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K115" t="s">
-        <v>567</v>
+      <c r="K115" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L115" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M115" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -6659,35 +6664,35 @@
       <c r="C116" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D116" t="s">
-        <v>221</v>
-      </c>
-      <c r="E116" t="s">
-        <v>323</v>
+      <c r="E116" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F116" t="s">
-        <v>396</v>
-      </c>
-      <c r="G116">
+        <v>321</v>
+      </c>
+      <c r="G116" t="s">
+        <v>394</v>
+      </c>
+      <c r="H116">
         <v>10</v>
       </c>
-      <c r="H116" t="s">
-        <v>406</v>
-      </c>
-      <c r="I116" s="2">
+      <c r="I116" t="s">
+        <v>404</v>
+      </c>
+      <c r="J116" s="2">
         <v>39182</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K116" t="s">
-        <v>589</v>
+      <c r="K116" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L116" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="M116" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -6697,35 +6702,35 @@
       <c r="C117" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D117" t="s">
-        <v>221</v>
-      </c>
-      <c r="E117" t="s">
-        <v>324</v>
+      <c r="E117" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="F117" t="s">
-        <v>397</v>
-      </c>
-      <c r="G117">
+        <v>322</v>
+      </c>
+      <c r="G117" t="s">
+        <v>395</v>
+      </c>
+      <c r="H117">
         <v>8</v>
       </c>
-      <c r="H117" t="s">
-        <v>400</v>
-      </c>
-      <c r="I117" s="2">
+      <c r="I117" t="s">
+        <v>398</v>
+      </c>
+      <c r="J117" s="2">
         <v>40298</v>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K117" t="s">
-        <v>589</v>
+      <c r="K117" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L117" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="M117" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -6735,40 +6740,42 @@
       <c r="C118" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D118" t="s">
-        <v>222</v>
-      </c>
-      <c r="E118" t="s">
-        <v>325</v>
+      <c r="E118" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F118" t="s">
-        <v>333</v>
-      </c>
-      <c r="G118">
+        <v>323</v>
+      </c>
+      <c r="G118" t="s">
+        <v>331</v>
+      </c>
+      <c r="H118">
         <v>8</v>
       </c>
-      <c r="H118" t="s">
-        <v>400</v>
-      </c>
-      <c r="I118" s="2">
+      <c r="I118" t="s">
+        <v>398</v>
+      </c>
+      <c r="J118" s="2">
         <v>39814</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K118" t="s">
-        <v>574</v>
+      <c r="K118" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L118" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="M118" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B119"/>
       <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/data_remaja.xlsx
+++ b/frontend/data_remaja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remaja\absen-remaja\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003A3E9-4E67-40C2-8514-644D9EBC9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEDED4-BD2A-47D2-9ACD-E1774BA83EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="617">
   <si>
     <t>nama</t>
   </si>
@@ -2265,23 +2265,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="11" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="10" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,34 +2294,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>555</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2332,35 +2328,35 @@
       <c r="C2" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
       <c r="F2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" t="s">
         <v>324</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <v>38729</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K2" t="s">
+        <v>563</v>
+      </c>
       <c r="L2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2370,35 +2366,35 @@
       <c r="C3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
       <c r="F3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" t="s">
         <v>325</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>38349</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>558</v>
       </c>
+      <c r="K3" t="s">
+        <v>564</v>
+      </c>
       <c r="L3" t="s">
-        <v>564</v>
-      </c>
-      <c r="M3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2408,35 +2404,35 @@
       <c r="C4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E4" t="s">
+        <v>223</v>
+      </c>
       <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
         <v>326</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>398</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>39092</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K4" t="s">
+        <v>565</v>
+      </c>
       <c r="L4" t="s">
-        <v>565</v>
-      </c>
-      <c r="M4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2446,35 +2442,35 @@
       <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
       <c r="F5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" t="s">
         <v>327</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>398</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>40077</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K5" t="s">
+        <v>566</v>
+      </c>
       <c r="L5" t="s">
-        <v>566</v>
-      </c>
-      <c r="M5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2484,35 +2480,35 @@
       <c r="C6" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E6" t="s">
+        <v>225</v>
+      </c>
       <c r="F6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" t="s">
         <v>328</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>398</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <v>44869</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K6" t="s">
+        <v>567</v>
+      </c>
       <c r="L6" t="s">
-        <v>567</v>
-      </c>
-      <c r="M6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2522,35 +2518,35 @@
       <c r="C7" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
       <c r="F7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" t="s">
         <v>329</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>398</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
         <v>39688</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K7" t="s">
+        <v>568</v>
+      </c>
       <c r="L7" t="s">
-        <v>568</v>
-      </c>
-      <c r="M7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2560,35 +2556,35 @@
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
       <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" t="s">
         <v>330</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>398</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>39133</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K8" t="s">
+        <v>569</v>
+      </c>
       <c r="L8" t="s">
-        <v>569</v>
-      </c>
-      <c r="M8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2598,35 +2594,35 @@
       <c r="C9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
       <c r="F9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" t="s">
         <v>331</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>399</v>
       </c>
-      <c r="J9" s="2">
+      <c r="I9" s="2">
         <v>38729</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K9" t="s">
+        <v>563</v>
+      </c>
       <c r="L9" t="s">
-        <v>563</v>
-      </c>
-      <c r="M9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2636,35 +2632,35 @@
       <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
       <c r="F10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" t="s">
         <v>331</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>400</v>
       </c>
-      <c r="J10" s="2">
+      <c r="I10" s="2">
         <v>39845</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K10" t="s">
+        <v>563</v>
+      </c>
       <c r="L10" t="s">
-        <v>563</v>
-      </c>
-      <c r="M10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2674,35 +2670,35 @@
       <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
       <c r="F11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" t="s">
         <v>332</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>398</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>38484</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K11" t="s">
+        <v>570</v>
+      </c>
       <c r="L11" t="s">
-        <v>570</v>
-      </c>
-      <c r="M11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2712,35 +2708,35 @@
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E12" t="s">
+        <v>231</v>
+      </c>
       <c r="F12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" t="s">
         <v>333</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>401</v>
       </c>
-      <c r="J12" s="2">
+      <c r="I12" s="2">
         <v>39067</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K12" t="s">
+        <v>563</v>
+      </c>
       <c r="L12" t="s">
-        <v>563</v>
-      </c>
-      <c r="M12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2750,35 +2746,35 @@
       <c r="C13" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
       <c r="F13" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" t="s">
         <v>334</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>402</v>
       </c>
-      <c r="J13" s="2">
+      <c r="I13" s="2">
         <v>39415</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K13" t="s">
+        <v>566</v>
+      </c>
       <c r="L13" t="s">
-        <v>566</v>
-      </c>
-      <c r="M13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2788,35 +2784,35 @@
       <c r="C14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
       <c r="F14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" t="s">
         <v>335</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>403</v>
       </c>
-      <c r="J14" s="2">
+      <c r="I14" s="2">
         <v>40026</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K14" t="s">
+        <v>571</v>
+      </c>
       <c r="L14" t="s">
-        <v>571</v>
-      </c>
-      <c r="M14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2826,35 +2822,35 @@
       <c r="C15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
       <c r="F15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" t="s">
         <v>336</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>404</v>
       </c>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
         <v>39465</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K15" t="s">
+        <v>567</v>
+      </c>
       <c r="L15" t="s">
-        <v>567</v>
-      </c>
-      <c r="M15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2864,35 +2860,35 @@
       <c r="C16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
       <c r="F16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" t="s">
         <v>337</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>11</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>398</v>
       </c>
-      <c r="J16" s="2">
+      <c r="I16" s="2">
         <v>39006</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K16" t="s">
+        <v>572</v>
+      </c>
       <c r="L16" t="s">
-        <v>572</v>
-      </c>
-      <c r="M16" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2902,35 +2898,35 @@
       <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
       <c r="F17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" t="s">
         <v>338</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>405</v>
       </c>
-      <c r="J17" s="2">
+      <c r="I17" s="2">
         <v>39850</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K17" t="s">
+        <v>572</v>
+      </c>
       <c r="L17" t="s">
-        <v>572</v>
-      </c>
-      <c r="M17" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2940,35 +2936,35 @@
       <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
       <c r="F18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" t="s">
         <v>331</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>11</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>398</v>
       </c>
-      <c r="J18" s="2">
+      <c r="I18" s="2">
         <v>38773</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>562</v>
       </c>
+      <c r="K18" t="s">
+        <v>573</v>
+      </c>
       <c r="L18" t="s">
-        <v>573</v>
-      </c>
-      <c r="M18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2978,35 +2974,35 @@
       <c r="C19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
       <c r="F19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" t="s">
         <v>331</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>406</v>
       </c>
-      <c r="J19" s="2">
+      <c r="I19" s="2">
         <v>38971</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K19" t="s">
+        <v>574</v>
+      </c>
       <c r="L19" t="s">
-        <v>574</v>
-      </c>
-      <c r="M19" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3016,35 +3012,35 @@
       <c r="C20" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
       <c r="F20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" t="s">
         <v>339</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <v>8</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>405</v>
       </c>
-      <c r="J20" s="2">
+      <c r="I20" s="2">
         <v>39783</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K20" t="s">
+        <v>572</v>
+      </c>
       <c r="L20" t="s">
-        <v>572</v>
-      </c>
-      <c r="M20" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3054,35 +3050,35 @@
       <c r="C21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
       <c r="F21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" t="s">
         <v>340</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>407</v>
       </c>
-      <c r="J21" s="2">
+      <c r="I21" s="2">
         <v>39309</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K21" t="s">
+        <v>575</v>
+      </c>
       <c r="L21" t="s">
-        <v>575</v>
-      </c>
-      <c r="M21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3092,35 +3088,35 @@
       <c r="C22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
       <c r="F22" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" t="s">
         <v>341</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <v>9</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>398</v>
       </c>
-      <c r="J22" s="2">
+      <c r="I22" s="2">
         <v>39491</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K22" t="s">
+        <v>576</v>
+      </c>
       <c r="L22" t="s">
-        <v>576</v>
-      </c>
-      <c r="M22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3130,35 +3126,35 @@
       <c r="C23" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E23" t="s">
+        <v>240</v>
+      </c>
       <c r="F23" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" t="s">
         <v>331</v>
       </c>
-      <c r="H23">
+      <c r="G23">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>398</v>
       </c>
-      <c r="J23" s="2">
+      <c r="I23" s="2">
         <v>39613</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K23" t="s">
+        <v>577</v>
+      </c>
       <c r="L23" t="s">
-        <v>577</v>
-      </c>
-      <c r="M23" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3168,35 +3164,35 @@
       <c r="C24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E24" t="s">
+        <v>242</v>
+      </c>
       <c r="F24" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" t="s">
         <v>343</v>
       </c>
-      <c r="H24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>398</v>
       </c>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
         <v>44693</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K24" t="s">
+        <v>563</v>
+      </c>
       <c r="L24" t="s">
-        <v>563</v>
-      </c>
-      <c r="M24" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3206,35 +3202,35 @@
       <c r="C25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
       <c r="F25" t="s">
-        <v>243</v>
-      </c>
-      <c r="G25" t="s">
         <v>344</v>
       </c>
-      <c r="H25">
+      <c r="G25">
         <v>9</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>398</v>
       </c>
-      <c r="J25" s="2">
+      <c r="I25" s="2">
         <v>39461</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K25" t="s">
+        <v>574</v>
+      </c>
       <c r="L25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3244,35 +3240,35 @@
       <c r="C26" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
       <c r="F26" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" t="s">
         <v>331</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>408</v>
       </c>
-      <c r="J26" s="2">
+      <c r="I26" s="2">
         <v>39658</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K26" t="s">
+        <v>563</v>
+      </c>
       <c r="L26" t="s">
-        <v>563</v>
-      </c>
-      <c r="M26" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3282,35 +3278,35 @@
       <c r="C27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
       <c r="F27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" t="s">
         <v>327</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <v>11</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>398</v>
       </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2">
         <v>38517</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K27" t="s">
+        <v>563</v>
+      </c>
       <c r="L27" t="s">
-        <v>563</v>
-      </c>
-      <c r="M27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3320,35 +3316,35 @@
       <c r="C28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E28" t="s">
+        <v>245</v>
+      </c>
       <c r="F28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" t="s">
         <v>345</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>398</v>
       </c>
-      <c r="J28" s="2">
+      <c r="I28" s="2">
         <v>38467</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K28" t="s">
+        <v>563</v>
+      </c>
       <c r="L28" t="s">
-        <v>563</v>
-      </c>
-      <c r="M28" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3358,35 +3354,35 @@
       <c r="C29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E29" t="s">
+        <v>246</v>
+      </c>
       <c r="F29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" t="s">
         <v>324</v>
       </c>
-      <c r="H29">
+      <c r="G29">
         <v>12</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>398</v>
       </c>
-      <c r="J29" s="2">
+      <c r="I29" s="2">
         <v>38532</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K29" t="s">
+        <v>565</v>
+      </c>
       <c r="L29" t="s">
-        <v>565</v>
-      </c>
-      <c r="M29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3396,35 +3392,35 @@
       <c r="C30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E30" t="s">
+        <v>247</v>
+      </c>
       <c r="F30" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" t="s">
         <v>342</v>
       </c>
-      <c r="H30">
+      <c r="G30">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>398</v>
       </c>
-      <c r="J30" s="2">
+      <c r="I30" s="2">
         <v>39092</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K30" t="s">
+        <v>566</v>
+      </c>
       <c r="L30" t="s">
-        <v>566</v>
-      </c>
-      <c r="M30" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3434,35 +3430,35 @@
       <c r="C31" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E31" t="s">
+        <v>248</v>
+      </c>
       <c r="F31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" t="s">
         <v>346</v>
       </c>
-      <c r="H31">
+      <c r="G31">
         <v>10</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>409</v>
       </c>
-      <c r="J31" s="2">
+      <c r="I31" s="2">
         <v>39117</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K31" t="s">
+        <v>578</v>
+      </c>
       <c r="L31" t="s">
-        <v>578</v>
-      </c>
-      <c r="M31" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3472,35 +3468,35 @@
       <c r="C32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E32" t="s">
+        <v>249</v>
+      </c>
       <c r="F32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" t="s">
         <v>347</v>
       </c>
-      <c r="H32">
+      <c r="G32">
         <v>12</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>398</v>
       </c>
-      <c r="J32" s="2">
+      <c r="I32" s="2">
         <v>38507</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K32" t="s">
+        <v>579</v>
+      </c>
       <c r="L32" t="s">
-        <v>579</v>
-      </c>
-      <c r="M32" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3510,35 +3506,35 @@
       <c r="C33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
       <c r="F33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" t="s">
         <v>331</v>
       </c>
-      <c r="H33">
+      <c r="G33">
         <v>12</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>410</v>
       </c>
-      <c r="J33" s="2">
+      <c r="I33" s="2">
         <v>38394</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K33" t="s">
+        <v>567</v>
+      </c>
       <c r="L33" t="s">
-        <v>567</v>
-      </c>
-      <c r="M33" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3548,35 +3544,35 @@
       <c r="C34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
       <c r="F34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" t="s">
         <v>348</v>
       </c>
-      <c r="H34">
+      <c r="G34">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>411</v>
       </c>
-      <c r="J34" s="2">
+      <c r="I34" s="2">
         <v>38718</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K34" t="s">
+        <v>574</v>
+      </c>
       <c r="L34" t="s">
-        <v>574</v>
-      </c>
-      <c r="M34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3586,35 +3582,35 @@
       <c r="C35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E35" t="s">
+        <v>252</v>
+      </c>
       <c r="F35" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="H35">
+      <c r="G35">
         <v>10</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>412</v>
       </c>
-      <c r="J35" s="2">
+      <c r="I35" s="2">
         <v>39136</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K35" t="s">
+        <v>574</v>
+      </c>
       <c r="L35" t="s">
-        <v>574</v>
-      </c>
-      <c r="M35" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3624,35 +3620,35 @@
       <c r="C36" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E36" t="s">
+        <v>253</v>
+      </c>
       <c r="F36" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" t="s">
         <v>349</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <v>9</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>398</v>
       </c>
-      <c r="J36" s="2">
+      <c r="I36" s="2">
         <v>39678</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K36" t="s">
+        <v>580</v>
+      </c>
       <c r="L36" t="s">
-        <v>580</v>
-      </c>
-      <c r="M36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3662,35 +3658,35 @@
       <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
       <c r="F37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" t="s">
         <v>350</v>
       </c>
-      <c r="H37">
+      <c r="G37">
         <v>12</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>398</v>
       </c>
-      <c r="J37" s="2">
+      <c r="I37" s="2">
         <v>38490</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K37" t="s">
+        <v>581</v>
+      </c>
       <c r="L37" t="s">
-        <v>581</v>
-      </c>
-      <c r="M37" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3700,35 +3696,35 @@
       <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E38" t="s">
+        <v>254</v>
+      </c>
       <c r="F38" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" t="s">
         <v>351</v>
       </c>
-      <c r="H38">
+      <c r="G38">
         <v>12</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>398</v>
       </c>
-      <c r="J38" s="2">
+      <c r="I38" s="2">
         <v>37916</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K38" t="s">
+        <v>582</v>
+      </c>
       <c r="L38" t="s">
-        <v>582</v>
-      </c>
-      <c r="M38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3738,35 +3734,35 @@
       <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E39" t="s">
+        <v>242</v>
+      </c>
       <c r="F39" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" t="s">
         <v>352</v>
       </c>
-      <c r="H39">
+      <c r="G39">
         <v>9</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>413</v>
       </c>
-      <c r="J39" s="2">
+      <c r="I39" s="2">
         <v>39802</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K39" t="s">
+        <v>565</v>
+      </c>
       <c r="L39" t="s">
-        <v>565</v>
-      </c>
-      <c r="M39" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3776,35 +3772,35 @@
       <c r="C40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
       <c r="F40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" t="s">
         <v>331</v>
       </c>
-      <c r="H40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>398</v>
       </c>
-      <c r="J40" s="2">
+      <c r="I40" s="2">
         <v>39760</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K40" t="s">
+        <v>574</v>
+      </c>
       <c r="L40" t="s">
-        <v>574</v>
-      </c>
-      <c r="M40" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3814,35 +3810,35 @@
       <c r="C41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E41" t="s">
+        <v>256</v>
+      </c>
       <c r="F41" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" t="s">
         <v>353</v>
       </c>
-      <c r="H41">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>414</v>
       </c>
-      <c r="J41" s="2">
+      <c r="I41" s="2">
         <v>39966</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K41" t="s">
+        <v>574</v>
+      </c>
       <c r="L41" t="s">
-        <v>574</v>
-      </c>
-      <c r="M41" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3852,35 +3848,35 @@
       <c r="C42" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
       <c r="F42" t="s">
-        <v>257</v>
-      </c>
-      <c r="G42" t="s">
         <v>331</v>
       </c>
-      <c r="H42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>398</v>
       </c>
-      <c r="J42" s="2">
+      <c r="I42" s="2">
         <v>39599</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K42" t="s">
+        <v>571</v>
+      </c>
       <c r="L42" t="s">
-        <v>571</v>
-      </c>
-      <c r="M42" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3890,35 +3886,35 @@
       <c r="C43" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E43" t="s">
+        <v>232</v>
+      </c>
       <c r="F43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" t="s">
         <v>354</v>
       </c>
-      <c r="H43">
+      <c r="G43">
         <v>12</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>411</v>
       </c>
-      <c r="J43" s="2">
+      <c r="I43" s="2">
         <v>38585</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K43" t="s">
+        <v>579</v>
+      </c>
       <c r="L43" t="s">
-        <v>579</v>
-      </c>
-      <c r="M43" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3928,35 +3924,35 @@
       <c r="C44" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E44" t="s">
+        <v>258</v>
+      </c>
       <c r="F44" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" t="s">
         <v>355</v>
       </c>
-      <c r="H44">
+      <c r="G44">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>398</v>
       </c>
-      <c r="J44" s="2">
+      <c r="I44" s="2">
         <v>39397</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K44" t="s">
+        <v>563</v>
+      </c>
       <c r="L44" t="s">
-        <v>563</v>
-      </c>
-      <c r="M44" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3966,35 +3962,35 @@
       <c r="C45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E45" t="s">
+        <v>259</v>
+      </c>
       <c r="F45" t="s">
-        <v>259</v>
-      </c>
-      <c r="G45" t="s">
         <v>356</v>
       </c>
-      <c r="H45">
+      <c r="G45">
         <v>10</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>398</v>
       </c>
-      <c r="J45" s="2">
+      <c r="I45" s="2">
         <v>39201</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K45" t="s">
+        <v>579</v>
+      </c>
       <c r="L45" t="s">
-        <v>579</v>
-      </c>
-      <c r="M45" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4004,35 +4000,35 @@
       <c r="C46" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E46" t="s">
+        <v>260</v>
+      </c>
       <c r="F46" t="s">
-        <v>260</v>
-      </c>
-      <c r="G46" t="s">
         <v>357</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>398</v>
       </c>
-      <c r="J46" s="2">
+      <c r="I46" s="2">
         <v>40096</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K46" t="s">
+        <v>563</v>
+      </c>
       <c r="L46" t="s">
-        <v>563</v>
-      </c>
-      <c r="M46" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4042,35 +4038,35 @@
       <c r="C47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E47" t="s">
+        <v>261</v>
+      </c>
       <c r="F47" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" t="s">
         <v>355</v>
       </c>
-      <c r="H47">
+      <c r="G47">
         <v>9</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>405</v>
       </c>
-      <c r="J47" s="2">
+      <c r="I47" s="2">
         <v>39668</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K47" t="s">
+        <v>563</v>
+      </c>
       <c r="L47" t="s">
-        <v>563</v>
-      </c>
-      <c r="M47" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4080,35 +4076,35 @@
       <c r="C48" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E48" t="s">
+        <v>232</v>
+      </c>
       <c r="F48" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" t="s">
         <v>358</v>
       </c>
-      <c r="H48">
+      <c r="G48">
         <v>10</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>411</v>
       </c>
-      <c r="J48" s="2">
+      <c r="I48" s="2">
         <v>39157</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K48" t="s">
+        <v>579</v>
+      </c>
       <c r="L48" t="s">
-        <v>579</v>
-      </c>
-      <c r="M48" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4118,35 +4114,35 @@
       <c r="C49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E49" t="s">
+        <v>262</v>
+      </c>
       <c r="F49" t="s">
-        <v>262</v>
-      </c>
-      <c r="G49" t="s">
         <v>359</v>
       </c>
-      <c r="H49">
+      <c r="G49">
         <v>12</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>398</v>
       </c>
-      <c r="J49" s="2">
+      <c r="I49" s="2">
         <v>38515</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K49" t="s">
+        <v>571</v>
+      </c>
       <c r="L49" t="s">
-        <v>571</v>
-      </c>
-      <c r="M49" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4156,35 +4152,35 @@
       <c r="C50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
       <c r="F50" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" t="s">
         <v>360</v>
       </c>
-      <c r="H50">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>399</v>
       </c>
-      <c r="J50" s="2">
+      <c r="I50" s="2">
         <v>44782</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K50" t="s">
+        <v>565</v>
+      </c>
       <c r="L50" t="s">
-        <v>565</v>
-      </c>
-      <c r="M50" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4194,35 +4190,35 @@
       <c r="C51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E51" t="s">
+        <v>263</v>
+      </c>
       <c r="F51" t="s">
-        <v>263</v>
-      </c>
-      <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="H51">
+      <c r="G51">
         <v>12</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>398</v>
       </c>
-      <c r="J51" s="2">
+      <c r="I51" s="2">
         <v>38199</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K51" t="s">
+        <v>583</v>
+      </c>
       <c r="L51" t="s">
-        <v>583</v>
-      </c>
-      <c r="M51" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4232,35 +4228,35 @@
       <c r="C52" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
       <c r="F52" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" t="s">
         <v>324</v>
       </c>
-      <c r="H52">
+      <c r="G52">
         <v>10</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s">
         <v>398</v>
       </c>
-      <c r="J52" s="2">
+      <c r="I52" s="2">
         <v>39250</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K52" t="s">
+        <v>563</v>
+      </c>
       <c r="L52" t="s">
-        <v>563</v>
-      </c>
-      <c r="M52" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4270,35 +4266,35 @@
       <c r="C53" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E53" t="s">
+        <v>264</v>
+      </c>
       <c r="F53" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" t="s">
         <v>331</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s">
         <v>398</v>
       </c>
-      <c r="J53" s="2">
+      <c r="I53" s="2">
         <v>39513</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K53" t="s">
+        <v>563</v>
+      </c>
       <c r="L53" t="s">
-        <v>563</v>
-      </c>
-      <c r="M53" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4308,35 +4304,35 @@
       <c r="C54" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
       <c r="F54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G54" t="s">
         <v>347</v>
       </c>
-      <c r="H54">
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>415</v>
       </c>
-      <c r="J54" s="2">
+      <c r="I54" s="2">
         <v>39749</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K54" t="s">
+        <v>584</v>
+      </c>
       <c r="L54" t="s">
-        <v>584</v>
-      </c>
-      <c r="M54" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4346,35 +4342,35 @@
       <c r="C55" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E55" t="s">
+        <v>266</v>
+      </c>
       <c r="F55" t="s">
-        <v>266</v>
-      </c>
-      <c r="G55" t="s">
         <v>362</v>
       </c>
-      <c r="H55">
+      <c r="G55">
         <v>11</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>398</v>
       </c>
-      <c r="J55" s="2">
+      <c r="I55" s="2">
         <v>39016</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K55" t="s">
+        <v>585</v>
+      </c>
       <c r="L55" t="s">
-        <v>585</v>
-      </c>
-      <c r="M55" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4384,35 +4380,35 @@
       <c r="C56" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E56" t="s">
+        <v>267</v>
+      </c>
       <c r="F56" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" t="s">
         <v>363</v>
       </c>
-      <c r="H56">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>398</v>
       </c>
-      <c r="J56" s="2">
+      <c r="I56" s="2">
         <v>39911</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K56" t="s">
+        <v>583</v>
+      </c>
       <c r="L56" t="s">
-        <v>583</v>
-      </c>
-      <c r="M56" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -4422,35 +4418,35 @@
       <c r="C57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E57" t="s">
+        <v>268</v>
+      </c>
       <c r="F57" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" t="s">
         <v>331</v>
       </c>
-      <c r="H57">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>416</v>
       </c>
-      <c r="J57" s="2">
+      <c r="I57" s="2">
         <v>39101</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K57" t="s">
+        <v>565</v>
+      </c>
       <c r="L57" t="s">
-        <v>565</v>
-      </c>
-      <c r="M57" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4460,35 +4456,35 @@
       <c r="C58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E58" t="s">
+        <v>269</v>
+      </c>
       <c r="F58" t="s">
-        <v>269</v>
-      </c>
-      <c r="G58" t="s">
         <v>364</v>
       </c>
-      <c r="H58">
+      <c r="G58">
         <v>10</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>417</v>
       </c>
-      <c r="J58" s="2">
+      <c r="I58" s="2">
         <v>39252</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K58" t="s">
+        <v>566</v>
+      </c>
       <c r="L58" t="s">
-        <v>566</v>
-      </c>
-      <c r="M58" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -4498,35 +4494,35 @@
       <c r="C59" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E59" t="s">
+        <v>270</v>
+      </c>
       <c r="F59" t="s">
-        <v>270</v>
-      </c>
-      <c r="G59" t="s">
         <v>365</v>
       </c>
-      <c r="H59">
+      <c r="G59">
         <v>8</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>398</v>
       </c>
-      <c r="J59" s="2">
+      <c r="I59" s="2">
         <v>40206</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K59" t="s">
+        <v>565</v>
+      </c>
       <c r="L59" t="s">
-        <v>565</v>
-      </c>
-      <c r="M59" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -4536,35 +4532,35 @@
       <c r="C60" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E60" t="s">
+        <v>271</v>
+      </c>
       <c r="F60" t="s">
-        <v>271</v>
-      </c>
-      <c r="G60" t="s">
         <v>331</v>
       </c>
-      <c r="H60">
+      <c r="G60">
         <v>11</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>418</v>
       </c>
-      <c r="J60" s="2">
+      <c r="I60" s="2">
         <v>38915</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K60" t="s">
+        <v>563</v>
+      </c>
       <c r="L60" t="s">
-        <v>563</v>
-      </c>
-      <c r="M60" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -4574,35 +4570,35 @@
       <c r="C61" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E61" t="s">
+        <v>272</v>
+      </c>
       <c r="F61" t="s">
-        <v>272</v>
-      </c>
-      <c r="G61" t="s">
         <v>366</v>
       </c>
-      <c r="H61">
+      <c r="G61">
         <v>10</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>398</v>
       </c>
-      <c r="J61" s="2">
+      <c r="I61" s="2">
         <v>39343</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>558</v>
       </c>
+      <c r="K61" t="s">
+        <v>564</v>
+      </c>
       <c r="L61" t="s">
-        <v>564</v>
-      </c>
-      <c r="M61" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4612,35 +4608,35 @@
       <c r="C62" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E62" t="s">
+        <v>273</v>
+      </c>
       <c r="F62" t="s">
-        <v>273</v>
-      </c>
-      <c r="G62" t="s">
         <v>367</v>
       </c>
-      <c r="H62">
+      <c r="G62">
         <v>12</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>398</v>
       </c>
-      <c r="J62" s="2">
+      <c r="I62" s="2">
         <v>38511</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K62" t="s">
+        <v>586</v>
+      </c>
       <c r="L62" t="s">
-        <v>586</v>
-      </c>
-      <c r="M62" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4650,35 +4646,35 @@
       <c r="C63" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E63" t="s">
+        <v>274</v>
+      </c>
       <c r="F63" t="s">
-        <v>274</v>
-      </c>
-      <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="H63">
+      <c r="G63">
         <v>10</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>398</v>
       </c>
-      <c r="J63" s="2">
+      <c r="I63" s="2">
         <v>39078</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K63" t="s">
+        <v>587</v>
+      </c>
       <c r="L63" t="s">
-        <v>587</v>
-      </c>
-      <c r="M63" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -4688,35 +4684,35 @@
       <c r="C64" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E64" t="s">
+        <v>275</v>
+      </c>
       <c r="F64" t="s">
-        <v>275</v>
-      </c>
-      <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="H64">
+      <c r="G64">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="J64" s="2">
+      <c r="I64" s="2">
         <v>39036</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K64" t="s">
+        <v>574</v>
+      </c>
       <c r="L64" t="s">
-        <v>574</v>
-      </c>
-      <c r="M64" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4726,35 +4722,35 @@
       <c r="C65" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E65" t="s">
+        <v>276</v>
+      </c>
       <c r="F65" t="s">
-        <v>276</v>
-      </c>
-      <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="H65">
+      <c r="G65">
         <v>9</v>
       </c>
-      <c r="I65" t="s">
+      <c r="H65" t="s">
         <v>420</v>
       </c>
-      <c r="J65" s="2">
+      <c r="I65" s="2">
         <v>39646</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K65" t="s">
+        <v>567</v>
+      </c>
       <c r="L65" t="s">
-        <v>567</v>
-      </c>
-      <c r="M65" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -4764,35 +4760,35 @@
       <c r="C66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E66" t="s">
+        <v>277</v>
+      </c>
       <c r="F66" t="s">
-        <v>277</v>
-      </c>
-      <c r="G66" t="s">
         <v>339</v>
       </c>
-      <c r="H66">
+      <c r="G66">
         <v>7</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>398</v>
       </c>
-      <c r="J66" s="2">
+      <c r="I66" s="2">
         <v>40165</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K66" t="s">
+        <v>574</v>
+      </c>
       <c r="L66" t="s">
-        <v>574</v>
-      </c>
-      <c r="M66" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -4802,35 +4798,35 @@
       <c r="C67" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E67" t="s">
+        <v>278</v>
+      </c>
       <c r="F67" t="s">
-        <v>278</v>
-      </c>
-      <c r="G67" t="s">
         <v>331</v>
       </c>
-      <c r="H67">
+      <c r="G67">
         <v>8</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>398</v>
       </c>
-      <c r="J67" s="2">
+      <c r="I67" s="2">
         <v>39926</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K67" t="s">
+        <v>570</v>
+      </c>
       <c r="L67" t="s">
-        <v>570</v>
-      </c>
-      <c r="M67" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -4840,35 +4836,35 @@
       <c r="C68" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
       <c r="F68" t="s">
-        <v>279</v>
-      </c>
-      <c r="G68" t="s">
         <v>371</v>
       </c>
-      <c r="H68">
+      <c r="G68">
         <v>12</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>421</v>
       </c>
-      <c r="J68" s="2">
+      <c r="I68" s="2">
         <v>38054</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K68" t="s">
+        <v>566</v>
+      </c>
       <c r="L68" t="s">
-        <v>566</v>
-      </c>
-      <c r="M68" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -4878,35 +4874,35 @@
       <c r="C69" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
       <c r="F69" t="s">
-        <v>280</v>
-      </c>
-      <c r="G69" t="s">
         <v>331</v>
       </c>
-      <c r="H69">
+      <c r="G69">
         <v>10</v>
       </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s">
         <v>421</v>
       </c>
-      <c r="J69" s="2">
+      <c r="I69" s="2">
         <v>38949</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K69" t="s">
+        <v>566</v>
+      </c>
       <c r="L69" t="s">
-        <v>566</v>
-      </c>
-      <c r="M69" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -4916,35 +4912,35 @@
       <c r="C70" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E70" t="s">
+        <v>281</v>
+      </c>
       <c r="F70" t="s">
-        <v>281</v>
-      </c>
-      <c r="G70" t="s">
         <v>372</v>
       </c>
-      <c r="H70">
+      <c r="G70">
         <v>8</v>
       </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
         <v>421</v>
       </c>
-      <c r="J70" s="2">
+      <c r="I70" s="2">
         <v>40060</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K70" t="s">
+        <v>570</v>
+      </c>
       <c r="L70" t="s">
-        <v>570</v>
-      </c>
-      <c r="M70" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -4954,35 +4950,35 @@
       <c r="C71" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
       <c r="F71" t="s">
-        <v>282</v>
-      </c>
-      <c r="G71" t="s">
         <v>373</v>
       </c>
-      <c r="H71">
+      <c r="G71">
         <v>9</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
         <v>398</v>
       </c>
-      <c r="J71" s="2">
+      <c r="I71" s="2">
         <v>39690</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
       <c r="L71" t="s">
-        <v>563</v>
-      </c>
-      <c r="M71" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -4992,35 +4988,35 @@
       <c r="C72" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E72" t="s">
+        <v>283</v>
+      </c>
       <c r="F72" t="s">
-        <v>283</v>
-      </c>
-      <c r="G72" t="s">
         <v>331</v>
       </c>
-      <c r="H72">
+      <c r="G72">
         <v>9</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
         <v>399</v>
       </c>
-      <c r="J72" s="2">
+      <c r="I72" s="2">
         <v>44849</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K72" t="s">
+        <v>574</v>
+      </c>
       <c r="L72" t="s">
-        <v>574</v>
-      </c>
-      <c r="M72" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5030,35 +5026,35 @@
       <c r="C73" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E73" t="s">
+        <v>284</v>
+      </c>
       <c r="F73" t="s">
-        <v>284</v>
-      </c>
-      <c r="G73" t="s">
         <v>331</v>
       </c>
-      <c r="H73">
+      <c r="G73">
         <v>9</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>398</v>
       </c>
-      <c r="J73" s="2">
+      <c r="I73" s="2">
         <v>39560</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K73" t="s">
+        <v>574</v>
+      </c>
       <c r="L73" t="s">
-        <v>574</v>
-      </c>
-      <c r="M73" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5068,35 +5064,35 @@
       <c r="C74" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E74" t="s">
+        <v>285</v>
+      </c>
       <c r="F74" t="s">
-        <v>285</v>
-      </c>
-      <c r="G74" t="s">
         <v>369</v>
       </c>
-      <c r="H74">
+      <c r="G74">
         <v>12</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s">
         <v>400</v>
       </c>
-      <c r="J74" s="2">
+      <c r="I74" s="2">
         <v>38298</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K74" t="s">
+        <v>565</v>
+      </c>
       <c r="L74" t="s">
-        <v>565</v>
-      </c>
-      <c r="M74" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5106,35 +5102,35 @@
       <c r="C75" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E75" t="s">
+        <v>255</v>
+      </c>
       <c r="F75" t="s">
-        <v>255</v>
-      </c>
-      <c r="G75" t="s">
         <v>331</v>
       </c>
-      <c r="H75">
+      <c r="G75">
         <v>12</v>
       </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
         <v>398</v>
       </c>
-      <c r="J75" s="2">
+      <c r="I75" s="2">
         <v>38550</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K75" t="s">
+        <v>577</v>
+      </c>
       <c r="L75" t="s">
-        <v>577</v>
-      </c>
-      <c r="M75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -5144,35 +5140,35 @@
       <c r="C76" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E76" t="s">
+        <v>286</v>
+      </c>
       <c r="F76" t="s">
-        <v>286</v>
-      </c>
-      <c r="G76" t="s">
         <v>374</v>
       </c>
-      <c r="H76">
+      <c r="G76">
         <v>9</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s">
         <v>411</v>
       </c>
-      <c r="J76" s="2">
+      <c r="I76" s="2">
         <v>39541</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K76" t="s">
+        <v>570</v>
+      </c>
       <c r="L76" t="s">
-        <v>570</v>
-      </c>
-      <c r="M76" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5182,35 +5178,35 @@
       <c r="C77" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E77" t="s">
+        <v>287</v>
+      </c>
       <c r="F77" t="s">
-        <v>287</v>
-      </c>
-      <c r="G77" t="s">
         <v>375</v>
       </c>
-      <c r="H77">
+      <c r="G77">
         <v>10</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H77" t="s">
         <v>422</v>
       </c>
-      <c r="J77" s="2">
+      <c r="I77" s="2">
         <v>39159</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K77" t="s">
+        <v>563</v>
+      </c>
       <c r="L77" t="s">
-        <v>563</v>
-      </c>
-      <c r="M77" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5220,35 +5216,35 @@
       <c r="C78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
       <c r="F78" t="s">
-        <v>275</v>
-      </c>
-      <c r="G78" t="s">
         <v>331</v>
       </c>
-      <c r="H78">
+      <c r="G78">
         <v>10</v>
       </c>
-      <c r="I78" t="s">
+      <c r="H78" t="s">
         <v>398</v>
       </c>
-      <c r="J78" s="2">
+      <c r="I78" s="2">
         <v>39309</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K78" t="s">
+        <v>567</v>
+      </c>
       <c r="L78" t="s">
-        <v>567</v>
-      </c>
-      <c r="M78" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5258,35 +5254,35 @@
       <c r="C79" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E79" t="s">
+        <v>288</v>
+      </c>
       <c r="F79" t="s">
-        <v>288</v>
-      </c>
-      <c r="G79" t="s">
         <v>331</v>
       </c>
-      <c r="H79">
+      <c r="G79">
         <v>11</v>
       </c>
-      <c r="I79" t="s">
+      <c r="H79" t="s">
         <v>423</v>
       </c>
-      <c r="J79" s="2">
+      <c r="I79" s="2">
         <v>38749</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K79" t="s">
+        <v>587</v>
+      </c>
       <c r="L79" t="s">
-        <v>587</v>
-      </c>
-      <c r="M79" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -5296,35 +5292,35 @@
       <c r="C80" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E80" t="s">
+        <v>289</v>
+      </c>
       <c r="F80" t="s">
-        <v>289</v>
-      </c>
-      <c r="G80" t="s">
         <v>324</v>
       </c>
-      <c r="H80">
+      <c r="G80">
         <v>9</v>
       </c>
-      <c r="I80" t="s">
+      <c r="H80" t="s">
         <v>398</v>
       </c>
-      <c r="J80" s="2">
+      <c r="I80" s="2">
         <v>39432</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K80" t="s">
+        <v>566</v>
+      </c>
       <c r="L80" t="s">
-        <v>566</v>
-      </c>
-      <c r="M80" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5334,35 +5330,35 @@
       <c r="C81" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E81" t="s">
+        <v>290</v>
+      </c>
       <c r="F81" t="s">
-        <v>290</v>
-      </c>
-      <c r="G81" t="s">
         <v>348</v>
       </c>
-      <c r="H81">
+      <c r="G81">
         <v>12</v>
       </c>
-      <c r="I81" t="s">
+      <c r="H81" t="s">
         <v>424</v>
       </c>
-      <c r="J81" s="2">
+      <c r="I81" s="2">
         <v>38357</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K81" t="s">
+        <v>566</v>
+      </c>
       <c r="L81" t="s">
-        <v>566</v>
-      </c>
-      <c r="M81" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5372,35 +5368,35 @@
       <c r="C82" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E82" t="s">
+        <v>291</v>
+      </c>
       <c r="F82" t="s">
-        <v>291</v>
-      </c>
-      <c r="G82" t="s">
         <v>376</v>
       </c>
-      <c r="H82">
+      <c r="G82">
         <v>10</v>
       </c>
-      <c r="I82" t="s">
+      <c r="H82" t="s">
         <v>398</v>
       </c>
-      <c r="J82" s="2">
+      <c r="I82" s="2">
         <v>39162</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K82" t="s">
+        <v>574</v>
+      </c>
       <c r="L82" t="s">
-        <v>574</v>
-      </c>
-      <c r="M82" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5410,35 +5406,35 @@
       <c r="C83" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E83" t="s">
+        <v>292</v>
+      </c>
       <c r="F83" t="s">
-        <v>292</v>
-      </c>
-      <c r="G83" t="s">
         <v>331</v>
       </c>
-      <c r="H83">
+      <c r="G83">
         <v>10</v>
       </c>
-      <c r="I83" t="s">
+      <c r="H83" t="s">
         <v>406</v>
       </c>
-      <c r="J83" s="2">
+      <c r="I83" s="2">
         <v>38962</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K83" t="s">
+        <v>574</v>
+      </c>
       <c r="L83" t="s">
-        <v>574</v>
-      </c>
-      <c r="M83" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -5448,35 +5444,35 @@
       <c r="C84" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E84" t="s">
+        <v>293</v>
+      </c>
       <c r="F84" t="s">
-        <v>293</v>
-      </c>
-      <c r="G84" t="s">
         <v>377</v>
       </c>
-      <c r="H84">
+      <c r="G84">
         <v>12</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H84" t="s">
         <v>398</v>
       </c>
-      <c r="J84" s="2">
+      <c r="I84" s="2">
         <v>44773</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K84" t="s">
+        <v>583</v>
+      </c>
       <c r="L84" t="s">
-        <v>583</v>
-      </c>
-      <c r="M84" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -5486,35 +5482,35 @@
       <c r="C85" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E85" t="s">
+        <v>294</v>
+      </c>
       <c r="F85" t="s">
-        <v>294</v>
-      </c>
-      <c r="G85" t="s">
         <v>328</v>
       </c>
-      <c r="H85">
+      <c r="G85">
         <v>8</v>
       </c>
-      <c r="I85" t="s">
+      <c r="H85" t="s">
         <v>398</v>
       </c>
-      <c r="J85" s="2">
+      <c r="I85" s="2">
         <v>39996</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K85" t="s">
+        <v>567</v>
+      </c>
       <c r="L85" t="s">
-        <v>567</v>
-      </c>
-      <c r="M85" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5524,35 +5520,35 @@
       <c r="C86" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E86" t="s">
+        <v>295</v>
+      </c>
       <c r="F86" t="s">
-        <v>295</v>
-      </c>
-      <c r="G86" t="s">
         <v>331</v>
       </c>
-      <c r="H86">
+      <c r="G86">
         <v>9</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s">
         <v>398</v>
       </c>
-      <c r="J86" s="2">
+      <c r="I86" s="2">
         <v>39535</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K86" t="s">
+        <v>563</v>
+      </c>
       <c r="L86" t="s">
-        <v>563</v>
-      </c>
-      <c r="M86" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -5562,35 +5558,35 @@
       <c r="C87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E87" t="s">
+        <v>241</v>
+      </c>
       <c r="F87" t="s">
-        <v>241</v>
-      </c>
-      <c r="G87" t="s">
         <v>378</v>
       </c>
-      <c r="H87">
+      <c r="G87">
         <v>12</v>
       </c>
-      <c r="I87" t="s">
+      <c r="H87" t="s">
         <v>425</v>
       </c>
-      <c r="J87" s="2">
+      <c r="I87" s="2">
         <v>38684</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K87" t="s">
+        <v>588</v>
+      </c>
       <c r="L87" t="s">
-        <v>588</v>
-      </c>
-      <c r="M87" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -5600,35 +5596,35 @@
       <c r="C88" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E88" t="s">
+        <v>296</v>
+      </c>
       <c r="F88" t="s">
-        <v>296</v>
-      </c>
-      <c r="G88" t="s">
         <v>371</v>
       </c>
-      <c r="H88">
+      <c r="G88">
         <v>12</v>
       </c>
-      <c r="I88" t="s">
+      <c r="H88" t="s">
         <v>426</v>
       </c>
-      <c r="J88" s="2">
+      <c r="I88" s="2">
         <v>38169</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K88" t="s">
+        <v>569</v>
+      </c>
       <c r="L88" t="s">
-        <v>569</v>
-      </c>
-      <c r="M88" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -5638,35 +5634,35 @@
       <c r="C89" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E89" t="s">
+        <v>297</v>
+      </c>
       <c r="F89" t="s">
-        <v>297</v>
-      </c>
-      <c r="G89" t="s">
         <v>379</v>
       </c>
-      <c r="H89">
+      <c r="G89">
         <v>10</v>
       </c>
-      <c r="I89" t="s">
+      <c r="H89" t="s">
         <v>398</v>
       </c>
-      <c r="J89" s="2">
+      <c r="I89" s="2">
         <v>39096</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K89" t="s">
+        <v>571</v>
+      </c>
       <c r="L89" t="s">
-        <v>571</v>
-      </c>
-      <c r="M89" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -5676,35 +5672,35 @@
       <c r="C90" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E90" t="s">
+        <v>298</v>
+      </c>
       <c r="F90" t="s">
-        <v>298</v>
-      </c>
-      <c r="G90" t="s">
         <v>380</v>
       </c>
-      <c r="H90">
+      <c r="G90">
         <v>10</v>
       </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s">
         <v>427</v>
       </c>
-      <c r="J90" s="2">
+      <c r="I90" s="2">
         <v>39443</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K90" t="s">
+        <v>587</v>
+      </c>
       <c r="L90" t="s">
-        <v>587</v>
-      </c>
-      <c r="M90" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -5714,35 +5710,35 @@
       <c r="C91" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E91" t="s">
+        <v>299</v>
+      </c>
       <c r="F91" t="s">
-        <v>299</v>
-      </c>
-      <c r="G91" t="s">
         <v>381</v>
       </c>
-      <c r="H91">
+      <c r="G91">
         <v>10</v>
       </c>
-      <c r="I91" t="s">
+      <c r="H91" t="s">
         <v>398</v>
       </c>
-      <c r="J91" s="2">
+      <c r="I91" s="2">
         <v>39049</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K91" t="s">
+        <v>575</v>
+      </c>
       <c r="L91" t="s">
-        <v>575</v>
-      </c>
-      <c r="M91" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -5752,35 +5748,35 @@
       <c r="C92" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E92" t="s">
+        <v>300</v>
+      </c>
       <c r="F92" t="s">
-        <v>300</v>
-      </c>
-      <c r="G92" t="s">
         <v>382</v>
       </c>
-      <c r="H92">
+      <c r="G92">
         <v>10</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s">
         <v>398</v>
       </c>
-      <c r="J92" s="2">
+      <c r="I92" s="2">
         <v>39033</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K92" t="s">
+        <v>566</v>
+      </c>
       <c r="L92" t="s">
-        <v>566</v>
-      </c>
-      <c r="M92" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5790,35 +5786,35 @@
       <c r="C93" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E93" t="s">
+        <v>301</v>
+      </c>
       <c r="F93" t="s">
-        <v>301</v>
-      </c>
-      <c r="G93" t="s">
         <v>327</v>
       </c>
-      <c r="H93">
+      <c r="G93">
         <v>8</v>
       </c>
-      <c r="I93" t="s">
+      <c r="H93" t="s">
         <v>428</v>
       </c>
-      <c r="J93" s="2">
+      <c r="I93" s="2">
         <v>40144</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K93" t="s">
+        <v>566</v>
+      </c>
       <c r="L93" t="s">
-        <v>566</v>
-      </c>
-      <c r="M93" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -5828,35 +5824,35 @@
       <c r="C94" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E94" t="s">
+        <v>302</v>
+      </c>
       <c r="F94" t="s">
-        <v>302</v>
-      </c>
-      <c r="G94" t="s">
         <v>383</v>
       </c>
-      <c r="H94">
+      <c r="G94">
         <v>12</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
         <v>398</v>
       </c>
-      <c r="J94" s="2">
+      <c r="I94" s="2">
         <v>38652</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K94" t="s">
+        <v>570</v>
+      </c>
       <c r="L94" t="s">
-        <v>570</v>
-      </c>
-      <c r="M94" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5866,35 +5862,35 @@
       <c r="C95" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E95" t="s">
+        <v>556</v>
+      </c>
       <c r="F95" t="s">
-        <v>556</v>
-      </c>
-      <c r="G95" t="s">
         <v>384</v>
       </c>
-      <c r="H95">
+      <c r="G95">
         <v>10</v>
       </c>
-      <c r="I95" t="s">
+      <c r="H95" t="s">
         <v>398</v>
       </c>
-      <c r="J95" s="2">
+      <c r="I95" s="2">
         <v>39059</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K95" t="s">
+        <v>569</v>
+      </c>
       <c r="L95" t="s">
-        <v>569</v>
-      </c>
-      <c r="M95" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -5904,35 +5900,35 @@
       <c r="C96" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E96" t="s">
+        <v>303</v>
+      </c>
       <c r="F96" t="s">
-        <v>303</v>
-      </c>
-      <c r="G96" t="s">
         <v>385</v>
       </c>
-      <c r="H96">
+      <c r="G96">
         <v>8</v>
       </c>
-      <c r="I96" t="s">
+      <c r="H96" t="s">
         <v>398</v>
       </c>
-      <c r="J96" s="2">
+      <c r="I96" s="2">
         <v>40009</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K96" t="s">
+        <v>586</v>
+      </c>
       <c r="L96" t="s">
-        <v>586</v>
-      </c>
-      <c r="M96" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5942,35 +5938,35 @@
       <c r="C97" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E97" t="s">
+        <v>304</v>
+      </c>
       <c r="F97" t="s">
-        <v>304</v>
-      </c>
-      <c r="G97" t="s">
         <v>386</v>
       </c>
-      <c r="H97">
+      <c r="G97">
         <v>10</v>
       </c>
-      <c r="I97" t="s">
+      <c r="H97" t="s">
         <v>429</v>
       </c>
-      <c r="J97" s="2">
+      <c r="I97" s="2">
         <v>39108</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K97" t="s">
+        <v>565</v>
+      </c>
       <c r="L97" t="s">
-        <v>565</v>
-      </c>
-      <c r="M97" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5980,35 +5976,35 @@
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E98" t="s">
+        <v>305</v>
+      </c>
       <c r="F98" t="s">
-        <v>305</v>
-      </c>
-      <c r="G98" t="s">
         <v>387</v>
       </c>
-      <c r="H98">
+      <c r="G98">
         <v>9</v>
       </c>
-      <c r="I98" t="s">
+      <c r="H98" t="s">
         <v>398</v>
       </c>
-      <c r="J98" s="2">
+      <c r="I98" s="2">
         <v>39685</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K98" t="s">
+        <v>574</v>
+      </c>
       <c r="L98" t="s">
-        <v>574</v>
-      </c>
-      <c r="M98" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -6018,35 +6014,35 @@
       <c r="C99" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E99" t="s">
+        <v>306</v>
+      </c>
       <c r="F99" t="s">
-        <v>306</v>
-      </c>
-      <c r="G99" t="s">
         <v>388</v>
       </c>
-      <c r="H99">
+      <c r="G99">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
+      <c r="H99" t="s">
         <v>430</v>
       </c>
-      <c r="J99" s="2">
+      <c r="I99" s="2">
         <v>38031</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="K99" t="s">
+        <v>589</v>
+      </c>
       <c r="L99" t="s">
-        <v>589</v>
-      </c>
-      <c r="M99" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -6056,35 +6052,35 @@
       <c r="C100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E100" t="s">
+        <v>307</v>
+      </c>
       <c r="F100" t="s">
-        <v>307</v>
-      </c>
-      <c r="G100" t="s">
         <v>389</v>
       </c>
-      <c r="H100">
+      <c r="G100">
         <v>8</v>
       </c>
-      <c r="I100" t="s">
+      <c r="H100" t="s">
         <v>431</v>
       </c>
-      <c r="J100" s="2">
+      <c r="I100" s="2">
         <v>39996</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K100" t="s">
+        <v>571</v>
+      </c>
       <c r="L100" t="s">
-        <v>571</v>
-      </c>
-      <c r="M100" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -6094,35 +6090,35 @@
       <c r="C101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E101" t="s">
+        <v>308</v>
+      </c>
       <c r="F101" t="s">
-        <v>308</v>
-      </c>
-      <c r="G101" t="s">
         <v>339</v>
       </c>
-      <c r="H101">
+      <c r="G101">
         <v>8</v>
       </c>
-      <c r="I101" t="s">
+      <c r="H101" t="s">
         <v>432</v>
       </c>
-      <c r="J101" s="2">
+      <c r="I101" s="2">
         <v>40033</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K101" t="s">
+        <v>569</v>
+      </c>
       <c r="L101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M101" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -6132,35 +6128,35 @@
       <c r="C102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E102" t="s">
+        <v>309</v>
+      </c>
       <c r="F102" t="s">
-        <v>309</v>
-      </c>
-      <c r="G102" t="s">
         <v>331</v>
       </c>
-      <c r="H102">
+      <c r="G102">
         <v>9</v>
       </c>
-      <c r="I102" t="s">
+      <c r="H102" t="s">
         <v>398</v>
       </c>
-      <c r="J102" s="2">
+      <c r="I102" s="2">
         <v>39391</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K102" t="s">
+        <v>575</v>
+      </c>
       <c r="L102" t="s">
-        <v>575</v>
-      </c>
-      <c r="M102" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6170,35 +6166,35 @@
       <c r="C103" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E103" t="s">
+        <v>310</v>
+      </c>
       <c r="F103" t="s">
-        <v>310</v>
-      </c>
-      <c r="G103" t="s">
         <v>324</v>
       </c>
-      <c r="H103">
+      <c r="G103">
         <v>10</v>
       </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s">
         <v>398</v>
       </c>
-      <c r="J103" s="2">
+      <c r="I103" s="2">
         <v>39078</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K103" t="s">
+        <v>571</v>
+      </c>
       <c r="L103" t="s">
-        <v>571</v>
-      </c>
-      <c r="M103" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -6208,35 +6204,35 @@
       <c r="C104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E104" t="s">
+        <v>232</v>
+      </c>
       <c r="F104" t="s">
-        <v>232</v>
-      </c>
-      <c r="G104" t="s">
         <v>324</v>
       </c>
-      <c r="H104">
+      <c r="G104">
         <v>10</v>
       </c>
-      <c r="I104" t="s">
+      <c r="H104" t="s">
         <v>433</v>
       </c>
-      <c r="J104" s="2">
+      <c r="I104" s="2">
         <v>39338</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K104" t="s">
+        <v>574</v>
+      </c>
       <c r="L104" t="s">
-        <v>574</v>
-      </c>
-      <c r="M104" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -6246,35 +6242,35 @@
       <c r="C105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E105" t="s">
+        <v>311</v>
+      </c>
       <c r="F105" t="s">
-        <v>311</v>
-      </c>
-      <c r="G105" t="s">
         <v>390</v>
       </c>
-      <c r="H105">
+      <c r="G105">
         <v>10</v>
       </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
         <v>398</v>
       </c>
-      <c r="J105" s="2">
+      <c r="I105" s="2">
         <v>39118</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K105" t="s">
+        <v>563</v>
+      </c>
       <c r="L105" t="s">
-        <v>563</v>
-      </c>
-      <c r="M105" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -6284,35 +6280,35 @@
       <c r="C106" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E106" t="s">
+        <v>225</v>
+      </c>
       <c r="F106" t="s">
-        <v>225</v>
-      </c>
-      <c r="G106" t="s">
         <v>391</v>
       </c>
-      <c r="H106">
+      <c r="G106">
         <v>11</v>
       </c>
-      <c r="I106" t="s">
+      <c r="H106" t="s">
         <v>398</v>
       </c>
-      <c r="J106" s="2">
+      <c r="I106" s="2">
         <v>38984</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K106" t="s">
+        <v>569</v>
+      </c>
       <c r="L106" t="s">
-        <v>569</v>
-      </c>
-      <c r="M106" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -6322,35 +6318,35 @@
       <c r="C107" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E107" t="s">
+        <v>312</v>
+      </c>
       <c r="F107" t="s">
-        <v>312</v>
-      </c>
-      <c r="G107" t="s">
         <v>331</v>
       </c>
-      <c r="H107">
+      <c r="G107">
         <v>12</v>
       </c>
-      <c r="I107" t="s">
+      <c r="H107" t="s">
         <v>399</v>
       </c>
-      <c r="J107" s="2">
+      <c r="I107" s="2">
         <v>38161</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K107" t="s">
+        <v>574</v>
+      </c>
       <c r="L107" t="s">
-        <v>574</v>
-      </c>
-      <c r="M107" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -6360,35 +6356,35 @@
       <c r="C108" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E108" t="s">
+        <v>313</v>
+      </c>
       <c r="F108" t="s">
-        <v>313</v>
-      </c>
-      <c r="G108" t="s">
         <v>331</v>
       </c>
-      <c r="H108">
+      <c r="G108">
         <v>12</v>
       </c>
-      <c r="I108" t="s">
+      <c r="H108" t="s">
         <v>434</v>
       </c>
-      <c r="J108" s="2">
+      <c r="I108" s="2">
         <v>44766</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K108" t="s">
+        <v>569</v>
+      </c>
       <c r="L108" t="s">
-        <v>569</v>
-      </c>
-      <c r="M108" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -6398,35 +6394,35 @@
       <c r="C109" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E109" t="s">
+        <v>314</v>
+      </c>
       <c r="F109" t="s">
-        <v>314</v>
-      </c>
-      <c r="G109" t="s">
         <v>331</v>
       </c>
-      <c r="H109">
+      <c r="G109">
         <v>12</v>
       </c>
-      <c r="I109" t="s">
+      <c r="H109" t="s">
         <v>398</v>
       </c>
-      <c r="J109" s="2">
+      <c r="I109" s="2">
         <v>38201</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K109" t="s">
+        <v>569</v>
+      </c>
       <c r="L109" t="s">
-        <v>569</v>
-      </c>
-      <c r="M109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -6436,35 +6432,35 @@
       <c r="C110" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E110" t="s">
+        <v>315</v>
+      </c>
       <c r="F110" t="s">
-        <v>315</v>
-      </c>
-      <c r="G110" t="s">
         <v>392</v>
       </c>
-      <c r="H110">
+      <c r="G110">
         <v>8</v>
       </c>
-      <c r="I110" t="s">
+      <c r="H110" t="s">
         <v>435</v>
       </c>
-      <c r="J110" s="2">
+      <c r="I110" s="2">
         <v>44761</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K110" t="s">
+        <v>566</v>
+      </c>
       <c r="L110" t="s">
-        <v>566</v>
-      </c>
-      <c r="M110" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -6474,35 +6470,35 @@
       <c r="C111" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E111" t="s">
+        <v>316</v>
+      </c>
       <c r="F111" t="s">
-        <v>316</v>
-      </c>
-      <c r="G111" t="s">
         <v>327</v>
       </c>
-      <c r="H111">
+      <c r="G111">
         <v>11</v>
       </c>
-      <c r="I111" t="s">
+      <c r="H111" t="s">
         <v>436</v>
       </c>
-      <c r="J111" s="2">
+      <c r="I111" s="2">
         <v>38715</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K111" t="s">
+        <v>566</v>
+      </c>
       <c r="L111" t="s">
-        <v>566</v>
-      </c>
-      <c r="M111" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6512,35 +6508,35 @@
       <c r="C112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E112" t="s">
+        <v>317</v>
+      </c>
       <c r="F112" t="s">
-        <v>317</v>
-      </c>
-      <c r="G112" t="s">
         <v>345</v>
       </c>
-      <c r="H112">
+      <c r="G112">
         <v>12</v>
       </c>
-      <c r="I112" t="s">
+      <c r="H112" t="s">
         <v>398</v>
       </c>
-      <c r="J112" s="2">
+      <c r="I112" s="2">
         <v>38653</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K112" t="s">
+        <v>590</v>
+      </c>
       <c r="L112" t="s">
-        <v>590</v>
-      </c>
-      <c r="M112" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -6550,35 +6546,35 @@
       <c r="C113" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E113" t="s">
+        <v>318</v>
+      </c>
       <c r="F113" t="s">
-        <v>318</v>
-      </c>
-      <c r="G113" t="s">
         <v>331</v>
       </c>
-      <c r="H113">
+      <c r="G113">
         <v>10</v>
       </c>
-      <c r="I113" t="s">
+      <c r="H113" t="s">
         <v>437</v>
       </c>
-      <c r="J113" s="2">
+      <c r="I113" s="2">
         <v>39144</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="K113" t="s">
+        <v>577</v>
+      </c>
       <c r="L113" t="s">
-        <v>577</v>
-      </c>
-      <c r="M113" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -6588,35 +6584,35 @@
       <c r="C114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E114" t="s">
+        <v>319</v>
+      </c>
       <c r="F114" t="s">
-        <v>319</v>
-      </c>
-      <c r="G114" t="s">
         <v>327</v>
       </c>
-      <c r="H114">
+      <c r="G114">
         <v>12</v>
       </c>
-      <c r="I114" t="s">
+      <c r="H114" t="s">
         <v>438</v>
       </c>
-      <c r="J114" s="2">
+      <c r="I114" s="2">
         <v>38591</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K114" t="s">
+        <v>566</v>
+      </c>
       <c r="L114" t="s">
-        <v>566</v>
-      </c>
-      <c r="M114" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6626,35 +6622,35 @@
       <c r="C115" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E115" t="s">
+        <v>320</v>
+      </c>
       <c r="F115" t="s">
-        <v>320</v>
-      </c>
-      <c r="G115" t="s">
         <v>393</v>
       </c>
-      <c r="H115">
+      <c r="G115">
         <v>10</v>
       </c>
-      <c r="I115" t="s">
+      <c r="H115" t="s">
         <v>398</v>
       </c>
-      <c r="J115" s="2">
+      <c r="I115" s="2">
         <v>39396</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="K115" t="s">
+        <v>565</v>
+      </c>
       <c r="L115" t="s">
-        <v>565</v>
-      </c>
-      <c r="M115" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -6664,35 +6660,35 @@
       <c r="C116" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E116" t="s">
+        <v>321</v>
+      </c>
       <c r="F116" t="s">
-        <v>321</v>
-      </c>
-      <c r="G116" t="s">
         <v>394</v>
       </c>
-      <c r="H116">
+      <c r="G116">
         <v>10</v>
       </c>
-      <c r="I116" t="s">
+      <c r="H116" t="s">
         <v>404</v>
       </c>
-      <c r="J116" s="2">
+      <c r="I116" s="2">
         <v>39182</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K116" t="s">
+        <v>587</v>
+      </c>
       <c r="L116" t="s">
-        <v>587</v>
-      </c>
-      <c r="M116" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -6702,35 +6698,35 @@
       <c r="C117" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="E117" t="s">
+        <v>322</v>
+      </c>
       <c r="F117" t="s">
-        <v>322</v>
-      </c>
-      <c r="G117" t="s">
         <v>395</v>
       </c>
-      <c r="H117">
+      <c r="G117">
         <v>8</v>
       </c>
-      <c r="I117" t="s">
+      <c r="H117" t="s">
         <v>398</v>
       </c>
-      <c r="J117" s="2">
+      <c r="I117" s="2">
         <v>40298</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K117" t="s">
+        <v>587</v>
+      </c>
       <c r="L117" t="s">
-        <v>587</v>
-      </c>
-      <c r="M117" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -6740,42 +6736,41 @@
       <c r="C118" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="E118" t="s">
+        <v>323</v>
+      </c>
       <c r="F118" t="s">
-        <v>323</v>
-      </c>
-      <c r="G118" t="s">
         <v>331</v>
       </c>
-      <c r="H118">
+      <c r="G118">
         <v>8</v>
       </c>
-      <c r="I118" t="s">
+      <c r="H118" t="s">
         <v>398</v>
       </c>
-      <c r="J118" s="2">
+      <c r="I118" s="2">
         <v>39814</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="K118" t="s">
+        <v>572</v>
+      </c>
       <c r="L118" t="s">
-        <v>572</v>
-      </c>
-      <c r="M118" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>